--- a/results/summary_physician.xlsx
+++ b/results/summary_physician.xlsx
@@ -504,19 +504,19 @@
         <v>44986.33333333334</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44986.83333333334</v>
+        <v>44986.83402777778</v>
       </c>
       <c r="F2" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -539,10 +539,10 @@
         <v>44986.33333333334</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44986.83333333334</v>
+        <v>44986.83402777778</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -574,19 +574,19 @@
         <v>44986.33333333334</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44986.83333333334</v>
+        <v>44986.83402777778</v>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -609,19 +609,19 @@
         <v>44986.33333333334</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44986.83333333334</v>
+        <v>44986.83402777778</v>
       </c>
       <c r="F5" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -644,19 +644,19 @@
         <v>44986.33333333334</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44986.83333333334</v>
+        <v>44986.83402777778</v>
       </c>
       <c r="F6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
         <v>12</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -679,19 +679,19 @@
         <v>44986.33333333334</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44986.83333333334</v>
+        <v>44986.83402777778</v>
       </c>
       <c r="F7" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -714,19 +714,19 @@
         <v>44986.83333333334</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44987.33333333334</v>
+        <v>44987.33402777778</v>
       </c>
       <c r="F8" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H8" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="I8" t="n">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -749,19 +749,19 @@
         <v>44986.83333333334</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44987.33333333334</v>
+        <v>44987.33402777778</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -784,19 +784,19 @@
         <v>44986.83333333334</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44987.33333333334</v>
+        <v>44987.33402777778</v>
       </c>
       <c r="F10" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I10" t="n">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -819,7 +819,7 @@
         <v>44986.33333333334</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44986.83333333334</v>
+        <v>44986.83402777778</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>44986.33333333334</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44986.83333333334</v>
+        <v>44986.83402777778</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>44986.33333333334</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44986.83333333334</v>
+        <v>44986.83402777778</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>44987.33333333334</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44987.83333333334</v>
+        <v>44987.83402777778</v>
       </c>
       <c r="F14" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G14" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
@@ -959,19 +959,19 @@
         <v>44987.33333333334</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44987.83333333334</v>
+        <v>44987.83402777778</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -994,19 +994,19 @@
         <v>44987.33333333334</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44987.83333333334</v>
+        <v>44987.83402777778</v>
       </c>
       <c r="F16" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="G16" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="I16" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -1029,19 +1029,19 @@
         <v>44987.33333333334</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44987.83333333334</v>
+        <v>44987.83402777778</v>
       </c>
       <c r="F17" t="n">
+        <v>47</v>
+      </c>
+      <c r="G17" t="n">
+        <v>6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
         <v>52</v>
-      </c>
-      <c r="G17" t="n">
-        <v>27</v>
-      </c>
-      <c r="H17" t="n">
-        <v>35</v>
-      </c>
-      <c r="I17" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -1064,19 +1064,19 @@
         <v>44987.33333333334</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>44987.83333333334</v>
+        <v>44987.83402777778</v>
       </c>
       <c r="F18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1099,19 +1099,19 @@
         <v>44987.33333333334</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>44987.83333333334</v>
+        <v>44987.83402777778</v>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -1134,19 +1134,19 @@
         <v>44987.33333333334</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>44987.83333333334</v>
+        <v>44987.83402777778</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1169,19 +1169,19 @@
         <v>44987.33333333334</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>44987.83333333334</v>
+        <v>44987.83402777778</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1204,19 +1204,19 @@
         <v>44987.33333333334</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>44987.83333333334</v>
+        <v>44987.83402777778</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1239,19 +1239,19 @@
         <v>44987.83333333334</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>44988.33333333334</v>
+        <v>44988.33402777778</v>
       </c>
       <c r="F23" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G23" t="n">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="H23" t="n">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I23" t="n">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -1274,19 +1274,19 @@
         <v>44987.83333333334</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>44988.33333333334</v>
+        <v>44988.33402777778</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G24" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1309,19 +1309,19 @@
         <v>44987.83333333334</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44988.33333333334</v>
+        <v>44988.33402777778</v>
       </c>
       <c r="F25" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G25" t="n">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="H25" t="n">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="I25" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -1344,19 +1344,19 @@
         <v>44988.33333333334</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44988.83333333334</v>
+        <v>44988.83402777778</v>
       </c>
       <c r="F26" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G26" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="H26" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1379,19 +1379,19 @@
         <v>44988.33333333334</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44988.83333333334</v>
+        <v>44988.83402777778</v>
       </c>
       <c r="F27" t="n">
+        <v>8</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>9</v>
-      </c>
-      <c r="G27" t="n">
-        <v>9</v>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1414,19 +1414,19 @@
         <v>44988.33333333334</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44988.83333333334</v>
+        <v>44988.83402777778</v>
       </c>
       <c r="F28" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G28" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="H28" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1449,19 +1449,19 @@
         <v>44988.33333333334</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44988.83333333334</v>
+        <v>44988.83402777778</v>
       </c>
       <c r="F29" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G29" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -1484,19 +1484,19 @@
         <v>44988.33333333334</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44988.83333333334</v>
+        <v>44988.83402777778</v>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1519,19 +1519,19 @@
         <v>44988.33333333334</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44988.83333333334</v>
+        <v>44988.83402777778</v>
       </c>
       <c r="F31" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G31" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H31" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
@@ -1554,19 +1554,19 @@
         <v>44988.83333333334</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44989.33333333334</v>
+        <v>44989.33402777778</v>
       </c>
       <c r="F32" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G32" t="n">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="H32" t="n">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="I32" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
@@ -1589,19 +1589,19 @@
         <v>44988.83333333334</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>44989.33333333334</v>
+        <v>44989.33402777778</v>
       </c>
       <c r="F33" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1624,19 +1624,19 @@
         <v>44988.83333333334</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44989.33333333334</v>
+        <v>44989.33402777778</v>
       </c>
       <c r="F34" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="H34" t="n">
-        <v>180</v>
+        <v>14</v>
       </c>
       <c r="I34" t="n">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
@@ -1659,19 +1659,19 @@
         <v>44988.33333333334</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>44988.83333333334</v>
+        <v>44988.83402777778</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1694,19 +1694,19 @@
         <v>44988.33333333334</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>44988.83333333334</v>
+        <v>44988.83402777778</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1729,16 +1729,16 @@
         <v>44988.33333333334</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44988.83333333334</v>
+        <v>44988.83402777778</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         <v>44989.33333333334</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>44989.83333333334</v>
+        <v>44989.83402777778</v>
       </c>
       <c r="F38" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G38" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -1799,19 +1799,19 @@
         <v>44989.33333333334</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>44989.83333333334</v>
+        <v>44989.83402777778</v>
       </c>
       <c r="F39" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
@@ -1834,19 +1834,19 @@
         <v>44989.33333333334</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>44989.83333333334</v>
+        <v>44989.83402777778</v>
       </c>
       <c r="F40" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G40" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -1869,19 +1869,19 @@
         <v>44989.33333333334</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>44989.83333333334</v>
+        <v>44989.83402777778</v>
       </c>
       <c r="F41" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G41" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -1904,19 +1904,19 @@
         <v>44989.33333333334</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>44989.83333333334</v>
+        <v>44989.83402777778</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -1939,19 +1939,19 @@
         <v>44989.33333333334</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>44989.83333333334</v>
+        <v>44989.83402777778</v>
       </c>
       <c r="F43" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G43" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="H43" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
@@ -1974,19 +1974,19 @@
         <v>44989.33333333334</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>44989.83333333334</v>
+        <v>44989.83402777778</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="H44" t="n">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2009,19 +2009,19 @@
         <v>44989.33333333334</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>44989.83333333334</v>
+        <v>44989.83402777778</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2044,19 +2044,19 @@
         <v>44989.33333333334</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>44989.83333333334</v>
+        <v>44989.83402777778</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
-        <v>129</v>
+        <v>9</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2079,19 +2079,19 @@
         <v>44989.83333333334</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>44990.33333333334</v>
+        <v>44990.33402777778</v>
       </c>
       <c r="F47" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G47" t="n">
-        <v>222</v>
+        <v>16</v>
       </c>
       <c r="H47" t="n">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="I47" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48">
@@ -2114,19 +2114,19 @@
         <v>44989.83333333334</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>44990.33333333334</v>
+        <v>44990.33402777778</v>
       </c>
       <c r="F48" t="n">
+        <v>22</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+      <c r="I48" t="n">
         <v>19</v>
-      </c>
-      <c r="G48" t="n">
-        <v>30</v>
-      </c>
-      <c r="H48" t="n">
-        <v>46</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -2149,19 +2149,19 @@
         <v>44989.83333333334</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>44990.33333333334</v>
+        <v>44990.33402777778</v>
       </c>
       <c r="F49" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G49" t="n">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="H49" t="n">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="I49" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50">
@@ -2184,19 +2184,19 @@
         <v>44990.33333333334</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44990.83333333334</v>
+        <v>44990.83402777778</v>
       </c>
       <c r="F50" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G50" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H50" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -2219,19 +2219,19 @@
         <v>44990.33333333334</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44990.83333333334</v>
+        <v>44990.83402777778</v>
       </c>
       <c r="F51" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G51" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -2254,19 +2254,19 @@
         <v>44990.33333333334</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>44990.83333333334</v>
+        <v>44990.83402777778</v>
       </c>
       <c r="F52" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G52" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H52" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
@@ -2289,19 +2289,19 @@
         <v>44990.33333333334</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>44990.83333333334</v>
+        <v>44990.83402777778</v>
       </c>
       <c r="F53" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G53" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H53" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
@@ -2324,19 +2324,19 @@
         <v>44990.33333333334</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>44990.83333333334</v>
+        <v>44990.83402777778</v>
       </c>
       <c r="F54" t="n">
+        <v>10</v>
+      </c>
+      <c r="G54" t="n">
+        <v>3</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
         <v>12</v>
-      </c>
-      <c r="G54" t="n">
-        <v>5</v>
-      </c>
-      <c r="H54" t="n">
-        <v>7</v>
-      </c>
-      <c r="I54" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="55">
@@ -2359,19 +2359,19 @@
         <v>44990.33333333334</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>44990.83333333334</v>
+        <v>44990.83402777778</v>
       </c>
       <c r="F55" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G55" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="H55" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56">
@@ -2394,19 +2394,19 @@
         <v>44990.83333333334</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>44991.33333333334</v>
+        <v>44991.33402777778</v>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G56" t="n">
-        <v>313</v>
+        <v>17</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>32</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57">
@@ -2429,19 +2429,19 @@
         <v>44990.83333333334</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44991.33333333334</v>
+        <v>44991.33402777778</v>
       </c>
       <c r="F57" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G57" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
@@ -2464,19 +2464,19 @@
         <v>44990.83333333334</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>44991.33333333334</v>
+        <v>44991.33402777778</v>
       </c>
       <c r="F58" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G58" t="n">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
@@ -2499,19 +2499,19 @@
         <v>44990.33333333334</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>44990.83333333334</v>
+        <v>44990.83402777778</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="H59" t="n">
-        <v>219</v>
+        <v>9</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2534,19 +2534,19 @@
         <v>44990.33333333334</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44990.83333333334</v>
+        <v>44990.83402777778</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2569,19 +2569,19 @@
         <v>44990.33333333334</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>44990.83333333334</v>
+        <v>44990.83402777778</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>193</v>
+        <v>9</v>
       </c>
       <c r="H61" t="n">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2604,7 +2604,7 @@
         <v>44991.33333333334</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44991.83333333334</v>
+        <v>44991.83402777778</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>44991.33333333334</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>44991.83333333334</v>
+        <v>44991.83402777778</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>44991.33333333334</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>44991.83333333334</v>
+        <v>44991.83402777778</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>44991.83333333334</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>44992.33333333334</v>
+        <v>44992.33402777778</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2744,7 +2744,7 @@
         <v>44991.83333333334</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44992.33333333334</v>
+        <v>44992.33402777778</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>44991.83333333334</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>44992.33333333334</v>
+        <v>44992.33402777778</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
@@ -2814,7 +2814,7 @@
         <v>44991.33333333334</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44991.83333333334</v>
+        <v>44991.83402777778</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>44991.33333333334</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44991.83333333334</v>
+        <v>44991.83402777778</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>44991.33333333334</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>44991.83333333334</v>
+        <v>44991.83402777778</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>44991.33333333334</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>44991.83333333334</v>
+        <v>44991.83402777778</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>44991.33333333334</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>44991.83333333334</v>
+        <v>44991.83402777778</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>44991.33333333334</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>44991.83333333334</v>
+        <v>44991.83402777778</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>44992.33333333334</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>44992.83333333334</v>
+        <v>44992.83402777778</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
         <v>44992.33333333334</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44992.83333333334</v>
+        <v>44992.83402777778</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>44992.33333333334</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>44992.83333333334</v>
+        <v>44992.83402777778</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>44992.83333333334</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>44993.33333333334</v>
+        <v>44993.33402777778</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>44992.83333333334</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44993.33333333334</v>
+        <v>44993.33402777778</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>44992.83333333334</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>44993.33333333334</v>
+        <v>44993.33402777778</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>44992.33333333334</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>44992.83333333334</v>
+        <v>44992.83402777778</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>44992.33333333334</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>44992.83333333334</v>
+        <v>44992.83402777778</v>
       </c>
       <c r="F81" t="n">
         <v>0</v>
@@ -3304,7 +3304,7 @@
         <v>44992.33333333334</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>44992.83333333334</v>
+        <v>44992.83402777778</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>44992.33333333334</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>44992.83333333334</v>
+        <v>44992.83402777778</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -3374,7 +3374,7 @@
         <v>44992.33333333334</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>44992.83333333334</v>
+        <v>44992.83402777778</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3409,7 +3409,7 @@
         <v>44992.33333333334</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>44992.83333333334</v>
+        <v>44992.83402777778</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>44993.33333333334</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>44993.83333333334</v>
+        <v>44993.83402777778</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3479,7 +3479,7 @@
         <v>44993.33333333334</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>44993.83333333334</v>
+        <v>44993.83402777778</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>44993.33333333334</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>44993.83333333334</v>
+        <v>44993.83402777778</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>44993.83333333334</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>44994.33333333334</v>
+        <v>44994.33402777778</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>44993.83333333334</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>44994.33333333334</v>
+        <v>44994.33402777778</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3619,7 +3619,7 @@
         <v>44993.83333333334</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>44994.33333333334</v>
+        <v>44994.33402777778</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>44993.33333333334</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>44993.83333333334</v>
+        <v>44993.83402777778</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>44993.33333333334</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>44993.83333333334</v>
+        <v>44993.83402777778</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>44993.33333333334</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>44993.83333333334</v>
+        <v>44993.83402777778</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>44993.33333333334</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>44993.83333333334</v>
+        <v>44993.83402777778</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>44993.33333333334</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>44993.83333333334</v>
+        <v>44993.83402777778</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -3829,7 +3829,7 @@
         <v>44993.33333333334</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>44993.83333333334</v>
+        <v>44993.83402777778</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>44994.33333333334</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>44994.83333333334</v>
+        <v>44994.83402777778</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>44994.33333333334</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>44994.83333333334</v>
+        <v>44994.83402777778</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -3934,7 +3934,7 @@
         <v>44994.33333333334</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>44994.83333333334</v>
+        <v>44994.83402777778</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
@@ -3969,7 +3969,7 @@
         <v>44994.83333333334</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>44995.33333333334</v>
+        <v>44995.33402777778</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>44994.83333333334</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>44995.33333333334</v>
+        <v>44995.33402777778</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>44994.83333333334</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>44995.33333333334</v>
+        <v>44995.33402777778</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>44994.33333333334</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>44994.83333333334</v>
+        <v>44994.83402777778</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>44994.33333333334</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>44994.83333333334</v>
+        <v>44994.83402777778</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>44994.33333333334</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>44994.83333333334</v>
+        <v>44994.83402777778</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>44994.33333333334</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>44994.83333333334</v>
+        <v>44994.83402777778</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -4214,7 +4214,7 @@
         <v>44994.33333333334</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>44994.83333333334</v>
+        <v>44994.83402777778</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -4249,7 +4249,7 @@
         <v>44994.33333333334</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>44994.83333333334</v>
+        <v>44994.83402777778</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4284,7 +4284,7 @@
         <v>44995.33333333334</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>44995.83333333334</v>
+        <v>44995.83402777778</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
@@ -4319,7 +4319,7 @@
         <v>44995.33333333334</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>44995.83333333334</v>
+        <v>44995.83402777778</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>44995.33333333334</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>44995.83333333334</v>
+        <v>44995.83402777778</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>44995.83333333334</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>44996.33333333334</v>
+        <v>44996.33402777778</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -4424,7 +4424,7 @@
         <v>44995.83333333334</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>44996.33333333334</v>
+        <v>44996.33402777778</v>
       </c>
       <c r="F114" t="n">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>44995.83333333334</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>44996.33333333334</v>
+        <v>44996.33402777778</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
@@ -4494,7 +4494,7 @@
         <v>44995.33333333334</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>44995.83333333334</v>
+        <v>44995.83402777778</v>
       </c>
       <c r="F116" t="n">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>44995.33333333334</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>44995.83333333334</v>
+        <v>44995.83402777778</v>
       </c>
       <c r="F117" t="n">
         <v>0</v>
@@ -4564,7 +4564,7 @@
         <v>44995.33333333334</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>44995.83333333334</v>
+        <v>44995.83402777778</v>
       </c>
       <c r="F118" t="n">
         <v>0</v>
@@ -4599,7 +4599,7 @@
         <v>44995.33333333334</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>44995.83333333334</v>
+        <v>44995.83402777778</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>44995.33333333334</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>44995.83333333334</v>
+        <v>44995.83402777778</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>44995.33333333334</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>44995.83333333334</v>
+        <v>44995.83402777778</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>44996.33333333334</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>44996.83333333334</v>
+        <v>44996.83402777778</v>
       </c>
       <c r="F122" t="n">
         <v>0</v>
@@ -4739,7 +4739,7 @@
         <v>44996.33333333334</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>44996.83333333334</v>
+        <v>44996.83402777778</v>
       </c>
       <c r="F123" t="n">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>44996.33333333334</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>44996.83333333334</v>
+        <v>44996.83402777778</v>
       </c>
       <c r="F124" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>44996.83333333334</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>44997.33333333334</v>
+        <v>44997.33402777778</v>
       </c>
       <c r="F125" t="n">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>44996.83333333334</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>44997.33333333334</v>
+        <v>44997.33402777778</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
@@ -4879,7 +4879,7 @@
         <v>44996.83333333334</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>44997.33333333334</v>
+        <v>44997.33402777778</v>
       </c>
       <c r="F127" t="n">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>44996.33333333334</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>44996.83333333334</v>
+        <v>44996.83402777778</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>44996.33333333334</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>44996.83333333334</v>
+        <v>44996.83402777778</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -4984,7 +4984,7 @@
         <v>44996.33333333334</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>44996.83333333334</v>
+        <v>44996.83402777778</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>44996.33333333334</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>44996.83333333334</v>
+        <v>44996.83402777778</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -5054,7 +5054,7 @@
         <v>44996.33333333334</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>44996.83333333334</v>
+        <v>44996.83402777778</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>44996.33333333334</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>44996.83333333334</v>
+        <v>44996.83402777778</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>44997.83333333334</v>
+        <v>44997.83402777778</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>44997.83333333334</v>
+        <v>44997.83402777778</v>
       </c>
       <c r="F135" t="n">
         <v>0</v>
@@ -5194,7 +5194,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>44997.83333333334</v>
+        <v>44997.83402777778</v>
       </c>
       <c r="F136" t="n">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>44997.83333333334</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>44998.33333333334</v>
+        <v>44998.33402777778</v>
       </c>
       <c r="F137" t="n">
         <v>0</v>
@@ -5264,7 +5264,7 @@
         <v>44997.83333333334</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>44998.33333333334</v>
+        <v>44998.33402777778</v>
       </c>
       <c r="F138" t="n">
         <v>0</v>
@@ -5299,7 +5299,7 @@
         <v>44997.83333333334</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>44998.33333333334</v>
+        <v>44998.33402777778</v>
       </c>
       <c r="F139" t="n">
         <v>0</v>
@@ -5334,7 +5334,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>44997.83333333334</v>
+        <v>44997.83402777778</v>
       </c>
       <c r="F140" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>44997.83333333334</v>
+        <v>44997.83402777778</v>
       </c>
       <c r="F141" t="n">
         <v>0</v>
@@ -5404,7 +5404,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>44997.83333333334</v>
+        <v>44997.83402777778</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>44997.83333333334</v>
+        <v>44997.83402777778</v>
       </c>
       <c r="F143" t="n">
         <v>0</v>
@@ -5474,7 +5474,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>44997.83333333334</v>
+        <v>44997.83402777778</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -5509,7 +5509,7 @@
         <v>44997.33333333334</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>44997.83333333334</v>
+        <v>44997.83402777778</v>
       </c>
       <c r="F145" t="n">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>44998.33333333334</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>44998.83333333334</v>
+        <v>44998.83402777778</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
@@ -5579,7 +5579,7 @@
         <v>44998.33333333334</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>44998.83333333334</v>
+        <v>44998.83402777778</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -5614,7 +5614,7 @@
         <v>44998.33333333334</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>44998.83333333334</v>
+        <v>44998.83402777778</v>
       </c>
       <c r="F148" t="n">
         <v>0</v>
@@ -5649,7 +5649,7 @@
         <v>44998.83333333334</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>44999.33333333334</v>
+        <v>44999.33402777778</v>
       </c>
       <c r="F149" t="n">
         <v>0</v>
@@ -5684,7 +5684,7 @@
         <v>44998.83333333334</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>44999.33333333334</v>
+        <v>44999.33402777778</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -5719,7 +5719,7 @@
         <v>44998.83333333334</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>44999.33333333334</v>
+        <v>44999.33402777778</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -5754,7 +5754,7 @@
         <v>44998.33333333334</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>44998.83333333334</v>
+        <v>44998.83402777778</v>
       </c>
       <c r="F152" t="n">
         <v>0</v>
@@ -5789,7 +5789,7 @@
         <v>44998.33333333334</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>44998.83333333334</v>
+        <v>44998.83402777778</v>
       </c>
       <c r="F153" t="n">
         <v>0</v>
@@ -5824,7 +5824,7 @@
         <v>44998.33333333334</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>44998.83333333334</v>
+        <v>44998.83402777778</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
@@ -5859,7 +5859,7 @@
         <v>44998.33333333334</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>44998.83333333334</v>
+        <v>44998.83402777778</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -5894,7 +5894,7 @@
         <v>44998.33333333334</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>44998.83333333334</v>
+        <v>44998.83402777778</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         <v>44998.33333333334</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>44998.83333333334</v>
+        <v>44998.83402777778</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
@@ -5964,7 +5964,7 @@
         <v>44999.33333333334</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>44999.83333333334</v>
+        <v>44999.83402777778</v>
       </c>
       <c r="F158" t="n">
         <v>0</v>
@@ -5999,7 +5999,7 @@
         <v>44999.33333333334</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>44999.83333333334</v>
+        <v>44999.83402777778</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -6034,7 +6034,7 @@
         <v>44999.33333333334</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>44999.83333333334</v>
+        <v>44999.83402777778</v>
       </c>
       <c r="F160" t="n">
         <v>0</v>
@@ -6069,7 +6069,7 @@
         <v>44999.83333333334</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>45000.33333333334</v>
+        <v>45000.33402777778</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -6104,7 +6104,7 @@
         <v>44999.83333333334</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>45000.33333333334</v>
+        <v>45000.33402777778</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -6139,7 +6139,7 @@
         <v>44999.83333333334</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>45000.33333333334</v>
+        <v>45000.33402777778</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
@@ -6174,7 +6174,7 @@
         <v>44999.33333333334</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>44999.83333333334</v>
+        <v>44999.83402777778</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -6209,7 +6209,7 @@
         <v>44999.33333333334</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>44999.83333333334</v>
+        <v>44999.83402777778</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
@@ -6244,7 +6244,7 @@
         <v>44999.33333333334</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>44999.83333333334</v>
+        <v>44999.83402777778</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -6279,7 +6279,7 @@
         <v>44999.33333333334</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>44999.83333333334</v>
+        <v>44999.83402777778</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
@@ -6314,7 +6314,7 @@
         <v>44999.33333333334</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>44999.83333333334</v>
+        <v>44999.83402777778</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -6349,7 +6349,7 @@
         <v>44999.33333333334</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>44999.83333333334</v>
+        <v>44999.83402777778</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>45000.33333333334</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>45000.83333333334</v>
+        <v>45000.83402777778</v>
       </c>
       <c r="F170" t="n">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>45000.33333333334</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>45000.83333333334</v>
+        <v>45000.83402777778</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>45000.33333333334</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>45000.83333333334</v>
+        <v>45000.83402777778</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -6489,7 +6489,7 @@
         <v>45000.83333333334</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>45001.33333333334</v>
+        <v>45001.33402777778</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -6524,7 +6524,7 @@
         <v>45000.83333333334</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>45001.33333333334</v>
+        <v>45001.33402777778</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>45000.83333333334</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>45001.33333333334</v>
+        <v>45001.33402777778</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>45000.33333333334</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>45000.83333333334</v>
+        <v>45000.83402777778</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -6629,7 +6629,7 @@
         <v>45000.33333333334</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>45000.83333333334</v>
+        <v>45000.83402777778</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -6664,7 +6664,7 @@
         <v>45000.33333333334</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>45000.83333333334</v>
+        <v>45000.83402777778</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -6699,7 +6699,7 @@
         <v>45000.33333333334</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>45000.83333333334</v>
+        <v>45000.83402777778</v>
       </c>
       <c r="F179" t="n">
         <v>0</v>
@@ -6734,7 +6734,7 @@
         <v>45000.33333333334</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>45000.83333333334</v>
+        <v>45000.83402777778</v>
       </c>
       <c r="F180" t="n">
         <v>0</v>
@@ -6769,7 +6769,7 @@
         <v>45000.33333333334</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>45000.83333333334</v>
+        <v>45000.83402777778</v>
       </c>
       <c r="F181" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>45001.33333333334</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>45001.83333333334</v>
+        <v>45001.83402777778</v>
       </c>
       <c r="F182" t="n">
         <v>0</v>
@@ -6839,7 +6839,7 @@
         <v>45001.33333333334</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>45001.83333333334</v>
+        <v>45001.83402777778</v>
       </c>
       <c r="F183" t="n">
         <v>0</v>
@@ -6874,7 +6874,7 @@
         <v>45001.33333333334</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>45001.83333333334</v>
+        <v>45001.83402777778</v>
       </c>
       <c r="F184" t="n">
         <v>0</v>
@@ -6909,7 +6909,7 @@
         <v>45001.83333333334</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>45002.33333333334</v>
+        <v>45002.33402777778</v>
       </c>
       <c r="F185" t="n">
         <v>0</v>
@@ -6944,7 +6944,7 @@
         <v>45001.83333333334</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>45002.33333333334</v>
+        <v>45002.33402777778</v>
       </c>
       <c r="F186" t="n">
         <v>0</v>
@@ -6979,7 +6979,7 @@
         <v>45001.83333333334</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>45002.33333333334</v>
+        <v>45002.33402777778</v>
       </c>
       <c r="F187" t="n">
         <v>0</v>
@@ -7014,7 +7014,7 @@
         <v>45001.33333333334</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>45001.83333333334</v>
+        <v>45001.83402777778</v>
       </c>
       <c r="F188" t="n">
         <v>0</v>
@@ -7049,7 +7049,7 @@
         <v>45001.33333333334</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>45001.83333333334</v>
+        <v>45001.83402777778</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
@@ -7084,7 +7084,7 @@
         <v>45001.33333333334</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>45001.83333333334</v>
+        <v>45001.83402777778</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
@@ -7119,7 +7119,7 @@
         <v>45001.33333333334</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>45001.83333333334</v>
+        <v>45001.83402777778</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -7154,7 +7154,7 @@
         <v>45001.33333333334</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>45001.83333333334</v>
+        <v>45001.83402777778</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -7189,7 +7189,7 @@
         <v>45001.33333333334</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>45001.83333333334</v>
+        <v>45001.83402777778</v>
       </c>
       <c r="F193" t="n">
         <v>0</v>
@@ -7224,7 +7224,7 @@
         <v>45002.33333333334</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>45002.83333333334</v>
+        <v>45002.83402777778</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -7259,7 +7259,7 @@
         <v>45002.33333333334</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>45002.83333333334</v>
+        <v>45002.83402777778</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>45002.33333333334</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>45002.83333333334</v>
+        <v>45002.83402777778</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7329,7 +7329,7 @@
         <v>45002.83333333334</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>45003.33333333334</v>
+        <v>45003.33402777778</v>
       </c>
       <c r="F197" t="n">
         <v>0</v>
@@ -7364,7 +7364,7 @@
         <v>45002.83333333334</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>45003.33333333334</v>
+        <v>45003.33402777778</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -7399,7 +7399,7 @@
         <v>45002.83333333334</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>45003.33333333334</v>
+        <v>45003.33402777778</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -7434,7 +7434,7 @@
         <v>45002.33333333334</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>45002.83333333334</v>
+        <v>45002.83402777778</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>45002.33333333334</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>45002.83333333334</v>
+        <v>45002.83402777778</v>
       </c>
       <c r="F201" t="n">
         <v>0</v>
@@ -7504,7 +7504,7 @@
         <v>45002.33333333334</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>45002.83333333334</v>
+        <v>45002.83402777778</v>
       </c>
       <c r="F202" t="n">
         <v>0</v>
@@ -7539,7 +7539,7 @@
         <v>45002.33333333334</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>45002.83333333334</v>
+        <v>45002.83402777778</v>
       </c>
       <c r="F203" t="n">
         <v>0</v>
@@ -7574,7 +7574,7 @@
         <v>45002.33333333334</v>
       </c>
       <c r="E204" s="2" t="n">
-        <v>45002.83333333334</v>
+        <v>45002.83402777778</v>
       </c>
       <c r="F204" t="n">
         <v>0</v>
@@ -7609,7 +7609,7 @@
         <v>45002.33333333334</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>45002.83333333334</v>
+        <v>45002.83402777778</v>
       </c>
       <c r="F205" t="n">
         <v>0</v>
@@ -7644,7 +7644,7 @@
         <v>45003.33333333334</v>
       </c>
       <c r="E206" s="2" t="n">
-        <v>45003.83333333334</v>
+        <v>45003.83402777778</v>
       </c>
       <c r="F206" t="n">
         <v>0</v>
@@ -7679,7 +7679,7 @@
         <v>45003.33333333334</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>45003.83333333334</v>
+        <v>45003.83402777778</v>
       </c>
       <c r="F207" t="n">
         <v>0</v>
@@ -7714,7 +7714,7 @@
         <v>45003.33333333334</v>
       </c>
       <c r="E208" s="2" t="n">
-        <v>45003.83333333334</v>
+        <v>45003.83402777778</v>
       </c>
       <c r="F208" t="n">
         <v>0</v>
@@ -7749,7 +7749,7 @@
         <v>45003.83333333334</v>
       </c>
       <c r="E209" s="2" t="n">
-        <v>45004.33333333334</v>
+        <v>45004.33402777778</v>
       </c>
       <c r="F209" t="n">
         <v>0</v>
@@ -7784,7 +7784,7 @@
         <v>45003.83333333334</v>
       </c>
       <c r="E210" s="2" t="n">
-        <v>45004.33333333334</v>
+        <v>45004.33402777778</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -7819,7 +7819,7 @@
         <v>45003.83333333334</v>
       </c>
       <c r="E211" s="2" t="n">
-        <v>45004.33333333334</v>
+        <v>45004.33402777778</v>
       </c>
       <c r="F211" t="n">
         <v>0</v>
@@ -7854,7 +7854,7 @@
         <v>45003.33333333334</v>
       </c>
       <c r="E212" s="2" t="n">
-        <v>45003.83333333334</v>
+        <v>45003.83402777778</v>
       </c>
       <c r="F212" t="n">
         <v>0</v>
@@ -7889,7 +7889,7 @@
         <v>45003.33333333334</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>45003.83333333334</v>
+        <v>45003.83402777778</v>
       </c>
       <c r="F213" t="n">
         <v>0</v>
@@ -7924,7 +7924,7 @@
         <v>45003.33333333334</v>
       </c>
       <c r="E214" s="2" t="n">
-        <v>45003.83333333334</v>
+        <v>45003.83402777778</v>
       </c>
       <c r="F214" t="n">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>45003.33333333334</v>
       </c>
       <c r="E215" s="2" t="n">
-        <v>45003.83333333334</v>
+        <v>45003.83402777778</v>
       </c>
       <c r="F215" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>45003.33333333334</v>
       </c>
       <c r="E216" s="2" t="n">
-        <v>45003.83333333334</v>
+        <v>45003.83402777778</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -8029,7 +8029,7 @@
         <v>45003.33333333334</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>45003.83333333334</v>
+        <v>45003.83402777778</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>45004.33333333334</v>
       </c>
       <c r="E218" s="2" t="n">
-        <v>45004.83333333334</v>
+        <v>45004.83402777778</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -8099,7 +8099,7 @@
         <v>45004.33333333334</v>
       </c>
       <c r="E219" s="2" t="n">
-        <v>45004.83333333334</v>
+        <v>45004.83402777778</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -8134,7 +8134,7 @@
         <v>45004.33333333334</v>
       </c>
       <c r="E220" s="2" t="n">
-        <v>45004.83333333334</v>
+        <v>45004.83402777778</v>
       </c>
       <c r="F220" t="n">
         <v>0</v>
@@ -8169,7 +8169,7 @@
         <v>45004.83333333334</v>
       </c>
       <c r="E221" s="2" t="n">
-        <v>45005.33333333334</v>
+        <v>45005.33402777778</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -8204,7 +8204,7 @@
         <v>45004.83333333334</v>
       </c>
       <c r="E222" s="2" t="n">
-        <v>45005.33333333334</v>
+        <v>45005.33402777778</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>45004.83333333334</v>
       </c>
       <c r="E223" s="2" t="n">
-        <v>45005.33333333334</v>
+        <v>45005.33402777778</v>
       </c>
       <c r="F223" t="n">
         <v>0</v>
@@ -8274,7 +8274,7 @@
         <v>45004.33333333334</v>
       </c>
       <c r="E224" s="2" t="n">
-        <v>45004.83333333334</v>
+        <v>45004.83402777778</v>
       </c>
       <c r="F224" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>45004.33333333334</v>
       </c>
       <c r="E225" s="2" t="n">
-        <v>45004.83333333334</v>
+        <v>45004.83402777778</v>
       </c>
       <c r="F225" t="n">
         <v>0</v>
@@ -8344,7 +8344,7 @@
         <v>45004.33333333334</v>
       </c>
       <c r="E226" s="2" t="n">
-        <v>45004.83333333334</v>
+        <v>45004.83402777778</v>
       </c>
       <c r="F226" t="n">
         <v>0</v>
@@ -8379,7 +8379,7 @@
         <v>45004.33333333334</v>
       </c>
       <c r="E227" s="2" t="n">
-        <v>45004.83333333334</v>
+        <v>45004.83402777778</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>45004.33333333334</v>
       </c>
       <c r="E228" s="2" t="n">
-        <v>45004.83333333334</v>
+        <v>45004.83402777778</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -8449,7 +8449,7 @@
         <v>45004.33333333334</v>
       </c>
       <c r="E229" s="2" t="n">
-        <v>45004.83333333334</v>
+        <v>45004.83402777778</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         <v>45005.33333333334</v>
       </c>
       <c r="E230" s="2" t="n">
-        <v>45005.83333333334</v>
+        <v>45005.83402777778</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -8519,7 +8519,7 @@
         <v>45005.33333333334</v>
       </c>
       <c r="E231" s="2" t="n">
-        <v>45005.83333333334</v>
+        <v>45005.83402777778</v>
       </c>
       <c r="F231" t="n">
         <v>0</v>
@@ -8554,7 +8554,7 @@
         <v>45005.33333333334</v>
       </c>
       <c r="E232" s="2" t="n">
-        <v>45005.83333333334</v>
+        <v>45005.83402777778</v>
       </c>
       <c r="F232" t="n">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>45005.83333333334</v>
       </c>
       <c r="E233" s="2" t="n">
-        <v>45006.33333333334</v>
+        <v>45006.33402777778</v>
       </c>
       <c r="F233" t="n">
         <v>0</v>
@@ -8624,7 +8624,7 @@
         <v>45005.83333333334</v>
       </c>
       <c r="E234" s="2" t="n">
-        <v>45006.33333333334</v>
+        <v>45006.33402777778</v>
       </c>
       <c r="F234" t="n">
         <v>0</v>
@@ -8659,7 +8659,7 @@
         <v>45005.83333333334</v>
       </c>
       <c r="E235" s="2" t="n">
-        <v>45006.33333333334</v>
+        <v>45006.33402777778</v>
       </c>
       <c r="F235" t="n">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>45005.33333333334</v>
       </c>
       <c r="E236" s="2" t="n">
-        <v>45005.83333333334</v>
+        <v>45005.83402777778</v>
       </c>
       <c r="F236" t="n">
         <v>0</v>
@@ -8729,7 +8729,7 @@
         <v>45005.33333333334</v>
       </c>
       <c r="E237" s="2" t="n">
-        <v>45005.83333333334</v>
+        <v>45005.83402777778</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8764,7 +8764,7 @@
         <v>45005.33333333334</v>
       </c>
       <c r="E238" s="2" t="n">
-        <v>45005.83333333334</v>
+        <v>45005.83402777778</v>
       </c>
       <c r="F238" t="n">
         <v>0</v>
@@ -8799,7 +8799,7 @@
         <v>45005.33333333334</v>
       </c>
       <c r="E239" s="2" t="n">
-        <v>45005.83333333334</v>
+        <v>45005.83402777778</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
@@ -8834,7 +8834,7 @@
         <v>45005.33333333334</v>
       </c>
       <c r="E240" s="2" t="n">
-        <v>45005.83333333334</v>
+        <v>45005.83402777778</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
@@ -8869,7 +8869,7 @@
         <v>45005.33333333334</v>
       </c>
       <c r="E241" s="2" t="n">
-        <v>45005.83333333334</v>
+        <v>45005.83402777778</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8904,7 +8904,7 @@
         <v>45006.33333333334</v>
       </c>
       <c r="E242" s="2" t="n">
-        <v>45006.83333333334</v>
+        <v>45006.83402777778</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>45006.33333333334</v>
       </c>
       <c r="E243" s="2" t="n">
-        <v>45006.83333333334</v>
+        <v>45006.83402777778</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
@@ -8974,7 +8974,7 @@
         <v>45006.33333333334</v>
       </c>
       <c r="E244" s="2" t="n">
-        <v>45006.83333333334</v>
+        <v>45006.83402777778</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>45006.83333333334</v>
       </c>
       <c r="E245" s="2" t="n">
-        <v>45007.33333333334</v>
+        <v>45007.33402777778</v>
       </c>
       <c r="F245" t="n">
         <v>0</v>
@@ -9044,7 +9044,7 @@
         <v>45006.83333333334</v>
       </c>
       <c r="E246" s="2" t="n">
-        <v>45007.33333333334</v>
+        <v>45007.33402777778</v>
       </c>
       <c r="F246" t="n">
         <v>0</v>
@@ -9079,7 +9079,7 @@
         <v>45006.83333333334</v>
       </c>
       <c r="E247" s="2" t="n">
-        <v>45007.33333333334</v>
+        <v>45007.33402777778</v>
       </c>
       <c r="F247" t="n">
         <v>0</v>
@@ -9114,7 +9114,7 @@
         <v>45006.33333333334</v>
       </c>
       <c r="E248" s="2" t="n">
-        <v>45006.83333333334</v>
+        <v>45006.83402777778</v>
       </c>
       <c r="F248" t="n">
         <v>0</v>
@@ -9149,7 +9149,7 @@
         <v>45006.33333333334</v>
       </c>
       <c r="E249" s="2" t="n">
-        <v>45006.83333333334</v>
+        <v>45006.83402777778</v>
       </c>
       <c r="F249" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>45006.33333333334</v>
       </c>
       <c r="E250" s="2" t="n">
-        <v>45006.83333333334</v>
+        <v>45006.83402777778</v>
       </c>
       <c r="F250" t="n">
         <v>0</v>
@@ -9219,7 +9219,7 @@
         <v>45006.33333333334</v>
       </c>
       <c r="E251" s="2" t="n">
-        <v>45006.83333333334</v>
+        <v>45006.83402777778</v>
       </c>
       <c r="F251" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>45006.33333333334</v>
       </c>
       <c r="E252" s="2" t="n">
-        <v>45006.83333333334</v>
+        <v>45006.83402777778</v>
       </c>
       <c r="F252" t="n">
         <v>0</v>
@@ -9289,7 +9289,7 @@
         <v>45006.33333333334</v>
       </c>
       <c r="E253" s="2" t="n">
-        <v>45006.83333333334</v>
+        <v>45006.83402777778</v>
       </c>
       <c r="F253" t="n">
         <v>0</v>
@@ -9324,7 +9324,7 @@
         <v>45007.33333333334</v>
       </c>
       <c r="E254" s="2" t="n">
-        <v>45007.83333333334</v>
+        <v>45007.83402777778</v>
       </c>
       <c r="F254" t="n">
         <v>0</v>
@@ -9359,7 +9359,7 @@
         <v>45007.33333333334</v>
       </c>
       <c r="E255" s="2" t="n">
-        <v>45007.83333333334</v>
+        <v>45007.83402777778</v>
       </c>
       <c r="F255" t="n">
         <v>0</v>
@@ -9394,7 +9394,7 @@
         <v>45007.33333333334</v>
       </c>
       <c r="E256" s="2" t="n">
-        <v>45007.83333333334</v>
+        <v>45007.83402777778</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>45007.83333333334</v>
       </c>
       <c r="E257" s="2" t="n">
-        <v>45008.33333333334</v>
+        <v>45008.33402777778</v>
       </c>
       <c r="F257" t="n">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>45007.83333333334</v>
       </c>
       <c r="E258" s="2" t="n">
-        <v>45008.33333333334</v>
+        <v>45008.33402777778</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9499,7 +9499,7 @@
         <v>45007.83333333334</v>
       </c>
       <c r="E259" s="2" t="n">
-        <v>45008.33333333334</v>
+        <v>45008.33402777778</v>
       </c>
       <c r="F259" t="n">
         <v>0</v>
@@ -9534,7 +9534,7 @@
         <v>45007.33333333334</v>
       </c>
       <c r="E260" s="2" t="n">
-        <v>45007.83333333334</v>
+        <v>45007.83402777778</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
@@ -9569,7 +9569,7 @@
         <v>45007.33333333334</v>
       </c>
       <c r="E261" s="2" t="n">
-        <v>45007.83333333334</v>
+        <v>45007.83402777778</v>
       </c>
       <c r="F261" t="n">
         <v>0</v>
@@ -9604,7 +9604,7 @@
         <v>45007.33333333334</v>
       </c>
       <c r="E262" s="2" t="n">
-        <v>45007.83333333334</v>
+        <v>45007.83402777778</v>
       </c>
       <c r="F262" t="n">
         <v>0</v>
@@ -9639,7 +9639,7 @@
         <v>45007.33333333334</v>
       </c>
       <c r="E263" s="2" t="n">
-        <v>45007.83333333334</v>
+        <v>45007.83402777778</v>
       </c>
       <c r="F263" t="n">
         <v>0</v>
@@ -9674,7 +9674,7 @@
         <v>45007.33333333334</v>
       </c>
       <c r="E264" s="2" t="n">
-        <v>45007.83333333334</v>
+        <v>45007.83402777778</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>45007.33333333334</v>
       </c>
       <c r="E265" s="2" t="n">
-        <v>45007.83333333334</v>
+        <v>45007.83402777778</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
@@ -9744,7 +9744,7 @@
         <v>45008.33333333334</v>
       </c>
       <c r="E266" s="2" t="n">
-        <v>45008.83333333334</v>
+        <v>45008.83402777778</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
@@ -9779,7 +9779,7 @@
         <v>45008.33333333334</v>
       </c>
       <c r="E267" s="2" t="n">
-        <v>45008.83333333334</v>
+        <v>45008.83402777778</v>
       </c>
       <c r="F267" t="n">
         <v>0</v>
@@ -9814,7 +9814,7 @@
         <v>45008.33333333334</v>
       </c>
       <c r="E268" s="2" t="n">
-        <v>45008.83333333334</v>
+        <v>45008.83402777778</v>
       </c>
       <c r="F268" t="n">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>45008.83333333334</v>
       </c>
       <c r="E269" s="2" t="n">
-        <v>45009.33333333334</v>
+        <v>45009.33402777778</v>
       </c>
       <c r="F269" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>45008.83333333334</v>
       </c>
       <c r="E270" s="2" t="n">
-        <v>45009.33333333334</v>
+        <v>45009.33402777778</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
@@ -9919,7 +9919,7 @@
         <v>45008.83333333334</v>
       </c>
       <c r="E271" s="2" t="n">
-        <v>45009.33333333334</v>
+        <v>45009.33402777778</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>45008.33333333334</v>
       </c>
       <c r="E272" s="2" t="n">
-        <v>45008.83333333334</v>
+        <v>45008.83402777778</v>
       </c>
       <c r="F272" t="n">
         <v>0</v>
@@ -9989,7 +9989,7 @@
         <v>45008.33333333334</v>
       </c>
       <c r="E273" s="2" t="n">
-        <v>45008.83333333334</v>
+        <v>45008.83402777778</v>
       </c>
       <c r="F273" t="n">
         <v>0</v>
@@ -10024,7 +10024,7 @@
         <v>45008.33333333334</v>
       </c>
       <c r="E274" s="2" t="n">
-        <v>45008.83333333334</v>
+        <v>45008.83402777778</v>
       </c>
       <c r="F274" t="n">
         <v>0</v>
@@ -10059,7 +10059,7 @@
         <v>45008.33333333334</v>
       </c>
       <c r="E275" s="2" t="n">
-        <v>45008.83333333334</v>
+        <v>45008.83402777778</v>
       </c>
       <c r="F275" t="n">
         <v>0</v>
@@ -10094,7 +10094,7 @@
         <v>45008.33333333334</v>
       </c>
       <c r="E276" s="2" t="n">
-        <v>45008.83333333334</v>
+        <v>45008.83402777778</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>45008.33333333334</v>
       </c>
       <c r="E277" s="2" t="n">
-        <v>45008.83333333334</v>
+        <v>45008.83402777778</v>
       </c>
       <c r="F277" t="n">
         <v>0</v>
@@ -10164,7 +10164,7 @@
         <v>45009.33333333334</v>
       </c>
       <c r="E278" s="2" t="n">
-        <v>45009.83333333334</v>
+        <v>45009.83402777778</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>45009.33333333334</v>
       </c>
       <c r="E279" s="2" t="n">
-        <v>45009.83333333334</v>
+        <v>45009.83402777778</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>45009.33333333334</v>
       </c>
       <c r="E280" s="2" t="n">
-        <v>45009.83333333334</v>
+        <v>45009.83402777778</v>
       </c>
       <c r="F280" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>45009.83333333334</v>
       </c>
       <c r="E281" s="2" t="n">
-        <v>45010.33333333334</v>
+        <v>45010.33402777778</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
@@ -10304,7 +10304,7 @@
         <v>45009.83333333334</v>
       </c>
       <c r="E282" s="2" t="n">
-        <v>45010.33333333334</v>
+        <v>45010.33402777778</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>45009.83333333334</v>
       </c>
       <c r="E283" s="2" t="n">
-        <v>45010.33333333334</v>
+        <v>45010.33402777778</v>
       </c>
       <c r="F283" t="n">
         <v>0</v>
@@ -10374,7 +10374,7 @@
         <v>45009.33333333334</v>
       </c>
       <c r="E284" s="2" t="n">
-        <v>45009.83333333334</v>
+        <v>45009.83402777778</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
@@ -10409,7 +10409,7 @@
         <v>45009.33333333334</v>
       </c>
       <c r="E285" s="2" t="n">
-        <v>45009.83333333334</v>
+        <v>45009.83402777778</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
@@ -10444,7 +10444,7 @@
         <v>45009.33333333334</v>
       </c>
       <c r="E286" s="2" t="n">
-        <v>45009.83333333334</v>
+        <v>45009.83402777778</v>
       </c>
       <c r="F286" t="n">
         <v>0</v>
@@ -10479,7 +10479,7 @@
         <v>45009.33333333334</v>
       </c>
       <c r="E287" s="2" t="n">
-        <v>45009.83333333334</v>
+        <v>45009.83402777778</v>
       </c>
       <c r="F287" t="n">
         <v>0</v>
@@ -10514,7 +10514,7 @@
         <v>45009.33333333334</v>
       </c>
       <c r="E288" s="2" t="n">
-        <v>45009.83333333334</v>
+        <v>45009.83402777778</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
@@ -10549,7 +10549,7 @@
         <v>45009.33333333334</v>
       </c>
       <c r="E289" s="2" t="n">
-        <v>45009.83333333334</v>
+        <v>45009.83402777778</v>
       </c>
       <c r="F289" t="n">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>45010.33333333334</v>
       </c>
       <c r="E290" s="2" t="n">
-        <v>45010.83333333334</v>
+        <v>45010.83402777778</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
@@ -10619,7 +10619,7 @@
         <v>45010.33333333334</v>
       </c>
       <c r="E291" s="2" t="n">
-        <v>45010.83333333334</v>
+        <v>45010.83402777778</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
@@ -10654,7 +10654,7 @@
         <v>45010.33333333334</v>
       </c>
       <c r="E292" s="2" t="n">
-        <v>45010.83333333334</v>
+        <v>45010.83402777778</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
@@ -10689,7 +10689,7 @@
         <v>45010.83333333334</v>
       </c>
       <c r="E293" s="2" t="n">
-        <v>45011.33333333334</v>
+        <v>45011.33402777778</v>
       </c>
       <c r="F293" t="n">
         <v>0</v>
@@ -10724,7 +10724,7 @@
         <v>45010.83333333334</v>
       </c>
       <c r="E294" s="2" t="n">
-        <v>45011.33333333334</v>
+        <v>45011.33402777778</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
@@ -10759,7 +10759,7 @@
         <v>45010.83333333334</v>
       </c>
       <c r="E295" s="2" t="n">
-        <v>45011.33333333334</v>
+        <v>45011.33402777778</v>
       </c>
       <c r="F295" t="n">
         <v>0</v>
@@ -10794,7 +10794,7 @@
         <v>45010.33333333334</v>
       </c>
       <c r="E296" s="2" t="n">
-        <v>45010.83333333334</v>
+        <v>45010.83402777778</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>45010.33333333334</v>
       </c>
       <c r="E297" s="2" t="n">
-        <v>45010.83333333334</v>
+        <v>45010.83402777778</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         <v>45010.33333333334</v>
       </c>
       <c r="E298" s="2" t="n">
-        <v>45010.83333333334</v>
+        <v>45010.83402777778</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>45010.33333333334</v>
       </c>
       <c r="E299" s="2" t="n">
-        <v>45010.83333333334</v>
+        <v>45010.83402777778</v>
       </c>
       <c r="F299" t="n">
         <v>0</v>
@@ -10934,7 +10934,7 @@
         <v>45010.33333333334</v>
       </c>
       <c r="E300" s="2" t="n">
-        <v>45010.83333333334</v>
+        <v>45010.83402777778</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
@@ -10969,7 +10969,7 @@
         <v>45010.33333333334</v>
       </c>
       <c r="E301" s="2" t="n">
-        <v>45010.83333333334</v>
+        <v>45010.83402777778</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
@@ -11004,7 +11004,7 @@
         <v>45011.33333333334</v>
       </c>
       <c r="E302" s="2" t="n">
-        <v>45011.83333333334</v>
+        <v>45011.83402777778</v>
       </c>
       <c r="F302" t="n">
         <v>0</v>
@@ -11039,7 +11039,7 @@
         <v>45011.33333333334</v>
       </c>
       <c r="E303" s="2" t="n">
-        <v>45011.83333333334</v>
+        <v>45011.83402777778</v>
       </c>
       <c r="F303" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>45011.33333333334</v>
       </c>
       <c r="E304" s="2" t="n">
-        <v>45011.83333333334</v>
+        <v>45011.83402777778</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
@@ -11109,7 +11109,7 @@
         <v>45011.83333333334</v>
       </c>
       <c r="E305" s="2" t="n">
-        <v>45012.33333333334</v>
+        <v>45012.33402777778</v>
       </c>
       <c r="F305" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>45011.83333333334</v>
       </c>
       <c r="E306" s="2" t="n">
-        <v>45012.33333333334</v>
+        <v>45012.33402777778</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
@@ -11179,7 +11179,7 @@
         <v>45011.83333333334</v>
       </c>
       <c r="E307" s="2" t="n">
-        <v>45012.33333333334</v>
+        <v>45012.33402777778</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
@@ -11214,7 +11214,7 @@
         <v>45011.33333333334</v>
       </c>
       <c r="E308" s="2" t="n">
-        <v>45011.83333333334</v>
+        <v>45011.83402777778</v>
       </c>
       <c r="F308" t="n">
         <v>0</v>
@@ -11249,7 +11249,7 @@
         <v>45011.33333333334</v>
       </c>
       <c r="E309" s="2" t="n">
-        <v>45011.83333333334</v>
+        <v>45011.83402777778</v>
       </c>
       <c r="F309" t="n">
         <v>0</v>
@@ -11284,7 +11284,7 @@
         <v>45011.33333333334</v>
       </c>
       <c r="E310" s="2" t="n">
-        <v>45011.83333333334</v>
+        <v>45011.83402777778</v>
       </c>
       <c r="F310" t="n">
         <v>0</v>
@@ -11319,7 +11319,7 @@
         <v>45011.33333333334</v>
       </c>
       <c r="E311" s="2" t="n">
-        <v>45011.83333333334</v>
+        <v>45011.83402777778</v>
       </c>
       <c r="F311" t="n">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>45011.33333333334</v>
       </c>
       <c r="E312" s="2" t="n">
-        <v>45011.83333333334</v>
+        <v>45011.83402777778</v>
       </c>
       <c r="F312" t="n">
         <v>0</v>
@@ -11389,7 +11389,7 @@
         <v>45011.33333333334</v>
       </c>
       <c r="E313" s="2" t="n">
-        <v>45011.83333333334</v>
+        <v>45011.83402777778</v>
       </c>
       <c r="F313" t="n">
         <v>0</v>
@@ -11424,7 +11424,7 @@
         <v>45012.33333333334</v>
       </c>
       <c r="E314" s="2" t="n">
-        <v>45012.83333333334</v>
+        <v>45012.83402777778</v>
       </c>
       <c r="F314" t="n">
         <v>0</v>
@@ -11459,7 +11459,7 @@
         <v>45012.33333333334</v>
       </c>
       <c r="E315" s="2" t="n">
-        <v>45012.83333333334</v>
+        <v>45012.83402777778</v>
       </c>
       <c r="F315" t="n">
         <v>0</v>
@@ -11494,7 +11494,7 @@
         <v>45012.33333333334</v>
       </c>
       <c r="E316" s="2" t="n">
-        <v>45012.83333333334</v>
+        <v>45012.83402777778</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
@@ -11529,7 +11529,7 @@
         <v>45012.83333333334</v>
       </c>
       <c r="E317" s="2" t="n">
-        <v>45013.33333333334</v>
+        <v>45013.33402777778</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
@@ -11564,7 +11564,7 @@
         <v>45012.83333333334</v>
       </c>
       <c r="E318" s="2" t="n">
-        <v>45013.33333333334</v>
+        <v>45013.33402777778</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
@@ -11599,7 +11599,7 @@
         <v>45012.83333333334</v>
       </c>
       <c r="E319" s="2" t="n">
-        <v>45013.33333333334</v>
+        <v>45013.33402777778</v>
       </c>
       <c r="F319" t="n">
         <v>0</v>
@@ -11634,7 +11634,7 @@
         <v>45012.33333333334</v>
       </c>
       <c r="E320" s="2" t="n">
-        <v>45012.83333333334</v>
+        <v>45012.83402777778</v>
       </c>
       <c r="F320" t="n">
         <v>0</v>
@@ -11669,7 +11669,7 @@
         <v>45012.33333333334</v>
       </c>
       <c r="E321" s="2" t="n">
-        <v>45012.83333333334</v>
+        <v>45012.83402777778</v>
       </c>
       <c r="F321" t="n">
         <v>0</v>
@@ -11704,7 +11704,7 @@
         <v>45012.33333333334</v>
       </c>
       <c r="E322" s="2" t="n">
-        <v>45012.83333333334</v>
+        <v>45012.83402777778</v>
       </c>
       <c r="F322" t="n">
         <v>0</v>
@@ -11739,7 +11739,7 @@
         <v>45012.33333333334</v>
       </c>
       <c r="E323" s="2" t="n">
-        <v>45012.83333333334</v>
+        <v>45012.83402777778</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
@@ -11774,7 +11774,7 @@
         <v>45012.33333333334</v>
       </c>
       <c r="E324" s="2" t="n">
-        <v>45012.83333333334</v>
+        <v>45012.83402777778</v>
       </c>
       <c r="F324" t="n">
         <v>0</v>
@@ -11809,7 +11809,7 @@
         <v>45012.33333333334</v>
       </c>
       <c r="E325" s="2" t="n">
-        <v>45012.83333333334</v>
+        <v>45012.83402777778</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
@@ -11844,7 +11844,7 @@
         <v>45013.33333333334</v>
       </c>
       <c r="E326" s="2" t="n">
-        <v>45013.83333333334</v>
+        <v>45013.83402777778</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
@@ -11879,7 +11879,7 @@
         <v>45013.33333333334</v>
       </c>
       <c r="E327" s="2" t="n">
-        <v>45013.83333333334</v>
+        <v>45013.83402777778</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>45013.33333333334</v>
       </c>
       <c r="E328" s="2" t="n">
-        <v>45013.83333333334</v>
+        <v>45013.83402777778</v>
       </c>
       <c r="F328" t="n">
         <v>0</v>
@@ -11949,7 +11949,7 @@
         <v>45013.83333333334</v>
       </c>
       <c r="E329" s="2" t="n">
-        <v>45014.33333333334</v>
+        <v>45014.33402777778</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
@@ -11984,7 +11984,7 @@
         <v>45013.83333333334</v>
       </c>
       <c r="E330" s="2" t="n">
-        <v>45014.33333333334</v>
+        <v>45014.33402777778</v>
       </c>
       <c r="F330" t="n">
         <v>0</v>
@@ -12019,7 +12019,7 @@
         <v>45013.83333333334</v>
       </c>
       <c r="E331" s="2" t="n">
-        <v>45014.33333333334</v>
+        <v>45014.33402777778</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
@@ -12054,7 +12054,7 @@
         <v>45013.33333333334</v>
       </c>
       <c r="E332" s="2" t="n">
-        <v>45013.83333333334</v>
+        <v>45013.83402777778</v>
       </c>
       <c r="F332" t="n">
         <v>0</v>
@@ -12089,7 +12089,7 @@
         <v>45013.33333333334</v>
       </c>
       <c r="E333" s="2" t="n">
-        <v>45013.83333333334</v>
+        <v>45013.83402777778</v>
       </c>
       <c r="F333" t="n">
         <v>0</v>
@@ -12124,7 +12124,7 @@
         <v>45013.33333333334</v>
       </c>
       <c r="E334" s="2" t="n">
-        <v>45013.83333333334</v>
+        <v>45013.83402777778</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
@@ -12159,7 +12159,7 @@
         <v>45013.33333333334</v>
       </c>
       <c r="E335" s="2" t="n">
-        <v>45013.83333333334</v>
+        <v>45013.83402777778</v>
       </c>
       <c r="F335" t="n">
         <v>0</v>
@@ -12194,7 +12194,7 @@
         <v>45013.33333333334</v>
       </c>
       <c r="E336" s="2" t="n">
-        <v>45013.83333333334</v>
+        <v>45013.83402777778</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
@@ -12229,7 +12229,7 @@
         <v>45013.33333333334</v>
       </c>
       <c r="E337" s="2" t="n">
-        <v>45013.83333333334</v>
+        <v>45013.83402777778</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
@@ -12264,7 +12264,7 @@
         <v>45014.33333333334</v>
       </c>
       <c r="E338" s="2" t="n">
-        <v>45014.83333333334</v>
+        <v>45014.83402777778</v>
       </c>
       <c r="F338" t="n">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>45014.33333333334</v>
       </c>
       <c r="E339" s="2" t="n">
-        <v>45014.83333333334</v>
+        <v>45014.83402777778</v>
       </c>
       <c r="F339" t="n">
         <v>0</v>
@@ -12334,7 +12334,7 @@
         <v>45014.33333333334</v>
       </c>
       <c r="E340" s="2" t="n">
-        <v>45014.83333333334</v>
+        <v>45014.83402777778</v>
       </c>
       <c r="F340" t="n">
         <v>0</v>
@@ -12369,7 +12369,7 @@
         <v>45014.83333333334</v>
       </c>
       <c r="E341" s="2" t="n">
-        <v>45015.33333333334</v>
+        <v>45015.33402777778</v>
       </c>
       <c r="F341" t="n">
         <v>0</v>
@@ -12404,7 +12404,7 @@
         <v>45014.83333333334</v>
       </c>
       <c r="E342" s="2" t="n">
-        <v>45015.33333333334</v>
+        <v>45015.33402777778</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
@@ -12439,7 +12439,7 @@
         <v>45014.83333333334</v>
       </c>
       <c r="E343" s="2" t="n">
-        <v>45015.33333333334</v>
+        <v>45015.33402777778</v>
       </c>
       <c r="F343" t="n">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>45014.33333333334</v>
       </c>
       <c r="E344" s="2" t="n">
-        <v>45014.83333333334</v>
+        <v>45014.83402777778</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
@@ -12509,7 +12509,7 @@
         <v>45014.33333333334</v>
       </c>
       <c r="E345" s="2" t="n">
-        <v>45014.83333333334</v>
+        <v>45014.83402777778</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
@@ -12544,7 +12544,7 @@
         <v>45014.33333333334</v>
       </c>
       <c r="E346" s="2" t="n">
-        <v>45014.83333333334</v>
+        <v>45014.83402777778</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
@@ -12579,7 +12579,7 @@
         <v>45014.33333333334</v>
       </c>
       <c r="E347" s="2" t="n">
-        <v>45014.83333333334</v>
+        <v>45014.83402777778</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
@@ -12614,7 +12614,7 @@
         <v>45014.33333333334</v>
       </c>
       <c r="E348" s="2" t="n">
-        <v>45014.83333333334</v>
+        <v>45014.83402777778</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
@@ -12649,7 +12649,7 @@
         <v>45014.33333333334</v>
       </c>
       <c r="E349" s="2" t="n">
-        <v>45014.83333333334</v>
+        <v>45014.83402777778</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
@@ -12684,7 +12684,7 @@
         <v>45015.33333333334</v>
       </c>
       <c r="E350" s="2" t="n">
-        <v>45015.83333333334</v>
+        <v>45015.83402777778</v>
       </c>
       <c r="F350" t="n">
         <v>0</v>
@@ -12719,7 +12719,7 @@
         <v>45015.33333333334</v>
       </c>
       <c r="E351" s="2" t="n">
-        <v>45015.83333333334</v>
+        <v>45015.83402777778</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
@@ -12754,7 +12754,7 @@
         <v>45015.33333333334</v>
       </c>
       <c r="E352" s="2" t="n">
-        <v>45015.83333333334</v>
+        <v>45015.83402777778</v>
       </c>
       <c r="F352" t="n">
         <v>0</v>
@@ -12789,7 +12789,7 @@
         <v>45015.83333333334</v>
       </c>
       <c r="E353" s="2" t="n">
-        <v>45016.33333333334</v>
+        <v>45016.33402777778</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
@@ -12824,7 +12824,7 @@
         <v>45015.83333333334</v>
       </c>
       <c r="E354" s="2" t="n">
-        <v>45016.33333333334</v>
+        <v>45016.33402777778</v>
       </c>
       <c r="F354" t="n">
         <v>0</v>
@@ -12859,7 +12859,7 @@
         <v>45015.83333333334</v>
       </c>
       <c r="E355" s="2" t="n">
-        <v>45016.33333333334</v>
+        <v>45016.33402777778</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
@@ -12894,7 +12894,7 @@
         <v>45015.33333333334</v>
       </c>
       <c r="E356" s="2" t="n">
-        <v>45015.83333333334</v>
+        <v>45015.83402777778</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
@@ -12929,7 +12929,7 @@
         <v>45015.33333333334</v>
       </c>
       <c r="E357" s="2" t="n">
-        <v>45015.83333333334</v>
+        <v>45015.83402777778</v>
       </c>
       <c r="F357" t="n">
         <v>0</v>
@@ -12964,7 +12964,7 @@
         <v>45015.33333333334</v>
       </c>
       <c r="E358" s="2" t="n">
-        <v>45015.83333333334</v>
+        <v>45015.83402777778</v>
       </c>
       <c r="F358" t="n">
         <v>0</v>
@@ -12999,7 +12999,7 @@
         <v>45015.33333333334</v>
       </c>
       <c r="E359" s="2" t="n">
-        <v>45015.83333333334</v>
+        <v>45015.83402777778</v>
       </c>
       <c r="F359" t="n">
         <v>0</v>
@@ -13034,7 +13034,7 @@
         <v>45015.33333333334</v>
       </c>
       <c r="E360" s="2" t="n">
-        <v>45015.83333333334</v>
+        <v>45015.83402777778</v>
       </c>
       <c r="F360" t="n">
         <v>0</v>
@@ -13069,7 +13069,7 @@
         <v>45015.33333333334</v>
       </c>
       <c r="E361" s="2" t="n">
-        <v>45015.83333333334</v>
+        <v>45015.83402777778</v>
       </c>
       <c r="F361" t="n">
         <v>0</v>
@@ -13104,7 +13104,7 @@
         <v>45016.33333333334</v>
       </c>
       <c r="E362" s="2" t="n">
-        <v>45016.83333333334</v>
+        <v>45016.83402777778</v>
       </c>
       <c r="F362" t="n">
         <v>0</v>
@@ -13139,7 +13139,7 @@
         <v>45016.33333333334</v>
       </c>
       <c r="E363" s="2" t="n">
-        <v>45016.83333333334</v>
+        <v>45016.83402777778</v>
       </c>
       <c r="F363" t="n">
         <v>0</v>
@@ -13174,7 +13174,7 @@
         <v>45016.33333333334</v>
       </c>
       <c r="E364" s="2" t="n">
-        <v>45016.83333333334</v>
+        <v>45016.83402777778</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
@@ -13209,7 +13209,7 @@
         <v>45016.83333333334</v>
       </c>
       <c r="E365" s="2" t="n">
-        <v>45017.33333333334</v>
+        <v>45017.33402777778</v>
       </c>
       <c r="F365" t="n">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>45016.83333333334</v>
       </c>
       <c r="E366" s="2" t="n">
-        <v>45017.33333333334</v>
+        <v>45017.33402777778</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
@@ -13279,7 +13279,7 @@
         <v>45016.83333333334</v>
       </c>
       <c r="E367" s="2" t="n">
-        <v>45017.33333333334</v>
+        <v>45017.33402777778</v>
       </c>
       <c r="F367" t="n">
         <v>0</v>
@@ -13314,7 +13314,7 @@
         <v>45016.33333333334</v>
       </c>
       <c r="E368" s="2" t="n">
-        <v>45016.83333333334</v>
+        <v>45016.83402777778</v>
       </c>
       <c r="F368" t="n">
         <v>0</v>
@@ -13349,7 +13349,7 @@
         <v>45016.33333333334</v>
       </c>
       <c r="E369" s="2" t="n">
-        <v>45016.83333333334</v>
+        <v>45016.83402777778</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
@@ -13384,7 +13384,7 @@
         <v>45016.33333333334</v>
       </c>
       <c r="E370" s="2" t="n">
-        <v>45016.83333333334</v>
+        <v>45016.83402777778</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
@@ -13419,7 +13419,7 @@
         <v>45016.33333333334</v>
       </c>
       <c r="E371" s="2" t="n">
-        <v>45016.83333333334</v>
+        <v>45016.83402777778</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
@@ -13454,7 +13454,7 @@
         <v>45016.33333333334</v>
       </c>
       <c r="E372" s="2" t="n">
-        <v>45016.83333333334</v>
+        <v>45016.83402777778</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>45016.33333333334</v>
       </c>
       <c r="E373" s="2" t="n">
-        <v>45016.83333333334</v>
+        <v>45016.83402777778</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>

--- a/results/summary_physician.xlsx
+++ b/results/summary_physician.xlsx
@@ -507,16 +507,16 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F2" t="n">
+        <v>49</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
         <v>43</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -542,16 +542,16 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -577,16 +577,16 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+      <c r="I5" t="n">
         <v>43</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -647,16 +647,16 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -682,16 +682,16 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F7" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -717,16 +717,16 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F8" t="n">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -752,16 +752,16 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -787,16 +787,16 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F10" t="n">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>77</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -927,16 +927,16 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -962,16 +962,16 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F15" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -997,16 +997,16 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F16" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1032,16 +1032,16 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F17" t="n">
+        <v>45</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" t="n">
         <v>47</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1067,16 +1067,16 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -1102,16 +1102,16 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F19" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
+        <v>3</v>
+      </c>
+      <c r="H19" t="n">
         <v>4</v>
       </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
       <c r="I19" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -1242,16 +1242,16 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F23" t="n">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24">
@@ -1277,16 +1277,16 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F24" t="n">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -1312,16 +1312,16 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F25" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H25" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1347,16 +1347,16 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F26" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
@@ -1382,16 +1382,16 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F27" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
@@ -1417,16 +1417,16 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F28" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1452,16 +1452,16 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F29" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
@@ -1487,7 +1487,7 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -1522,16 +1522,16 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F31" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -1557,16 +1557,16 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F32" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="G32" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I32" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -1592,16 +1592,16 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F33" t="n">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I33" t="n">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34">
@@ -1627,16 +1627,16 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F34" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="G34" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F38" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
@@ -1802,16 +1802,16 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F39" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
@@ -1837,16 +1837,16 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F40" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1872,16 +1872,16 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F41" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42">
@@ -1907,16 +1907,16 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F42" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -1942,16 +1942,16 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F43" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F47" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G47" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
@@ -2117,16 +2117,16 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F48" t="n">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
@@ -2152,16 +2152,16 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F49" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G49" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50">
@@ -2187,16 +2187,16 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F50" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G50" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51">
@@ -2222,16 +2222,16 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="n">
         <v>1</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52">
@@ -2257,16 +2257,16 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F52" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2292,16 +2292,16 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F53" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G53" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54">
@@ -2327,16 +2327,16 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55">
@@ -2362,16 +2362,16 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F55" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G55" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56">
@@ -2397,16 +2397,16 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F56" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G56" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57">
@@ -2432,16 +2432,16 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F57" t="n">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58">
@@ -2467,16 +2467,16 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F58" t="n">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="G58" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>84</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -2505,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>

--- a/results/summary_physician.xlsx
+++ b/results/summary_physician.xlsx
@@ -507,16 +507,16 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F2" t="n">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
@@ -542,16 +542,16 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F3" t="n">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>43</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
@@ -612,16 +612,16 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6">
@@ -647,16 +647,16 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F6" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -682,16 +682,16 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -717,16 +717,16 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F8" t="n">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -752,16 +752,16 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F9" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -787,16 +787,16 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -927,16 +927,16 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F14" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
@@ -962,16 +962,16 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F15" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1032,16 +1032,16 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F17" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -1067,16 +1067,16 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19">
@@ -1102,16 +1102,16 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F19" t="n">
+        <v>48</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>20</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-      <c r="I19" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1242,16 +1242,16 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F23" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24">
@@ -1277,16 +1277,16 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F24" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25">
@@ -1312,16 +1312,16 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1347,16 +1347,16 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -1382,16 +1382,16 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
@@ -1452,16 +1452,16 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F29" t="n">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
@@ -1487,16 +1487,16 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F30" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
@@ -1522,7 +1522,7 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F31" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
@@ -1557,16 +1557,16 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F32" t="n">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
       <c r="I32" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -1592,16 +1592,16 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F33" t="n">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
       <c r="I33" t="n">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
@@ -1627,7 +1627,7 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F34" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F38" t="n">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39">
@@ -1802,16 +1802,16 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F39" t="n">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40">
@@ -1872,16 +1872,16 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F41" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="G41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>48</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42">
@@ -1907,16 +1907,16 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F42" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43">
@@ -1942,16 +1942,16 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F43" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
@@ -1980,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -2015,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -2082,16 +2082,16 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F47" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48">
@@ -2117,16 +2117,16 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F48" t="n">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
@@ -2152,16 +2152,16 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -2187,16 +2187,16 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F50" t="n">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51">
@@ -2222,16 +2222,16 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F51" t="n">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>43</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52">
@@ -2292,16 +2292,16 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F53" t="n">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>42</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54">
@@ -2327,16 +2327,16 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F54" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55">
@@ -2362,16 +2362,16 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F55" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56">
@@ -2397,16 +2397,16 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F56" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57">
@@ -2432,7 +2432,7 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F57" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
@@ -2467,16 +2467,16 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -2505,10 +2505,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2540,10 +2540,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>

--- a/results/summary_physician.xlsx
+++ b/results/summary_physician.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I373"/>
+  <dimension ref="A1:J373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,11 @@
           <t>Discharged Patients</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Admitted Patients</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -507,7 +512,7 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F2" t="n">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -516,7 +521,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>92</v>
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -542,7 +550,7 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F3" t="n">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -551,7 +559,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>92</v>
+        <v>15</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -588,6 +599,9 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -612,7 +626,7 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F5" t="n">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -621,7 +635,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>93</v>
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="6">
@@ -647,16 +664,19 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F6" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>57</v>
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -682,16 +702,19 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -717,7 +740,7 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F8" t="n">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -726,7 +749,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>94</v>
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -752,16 +778,19 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F9" t="n">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>78</v>
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -787,16 +816,19 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -833,6 +865,9 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -868,6 +903,9 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -903,6 +941,9 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -927,7 +968,7 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F14" t="n">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -936,7 +977,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -962,7 +1006,7 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F15" t="n">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -971,7 +1015,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1008,6 +1055,9 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1032,16 +1082,19 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F17" t="n">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>69</v>
+        <v>12</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1067,16 +1120,19 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F18" t="n">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>49</v>
+        <v>10</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1102,7 +1158,7 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F19" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1111,7 +1167,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1140,13 +1199,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -1181,7 +1243,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1210,12 +1275,15 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1242,16 +1310,19 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F23" t="n">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>92</v>
+        <v>11</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1277,16 +1348,19 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F24" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>70</v>
+        <v>11</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1312,16 +1386,19 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F25" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1347,7 +1424,7 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F26" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1356,7 +1433,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>79</v>
+        <v>19</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1382,7 +1462,7 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F27" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1391,7 +1471,10 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>79</v>
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1428,6 +1511,9 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1452,7 +1538,7 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F29" t="n">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1461,7 +1547,10 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="J29" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1487,7 +1576,7 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F30" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1496,7 +1585,10 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="J30" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1522,7 +1614,7 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F31" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1531,7 +1623,10 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1557,7 +1652,7 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F32" t="n">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -1566,7 +1661,10 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>91</v>
+        <v>11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1592,16 +1690,19 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F33" t="n">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>79</v>
+        <v>9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1627,16 +1728,19 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F34" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1673,6 +1777,9 @@
       <c r="I35" t="n">
         <v>0</v>
       </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1700,12 +1807,15 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1735,12 +1845,15 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1767,7 +1880,7 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F38" t="n">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1776,7 +1889,10 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>94</v>
+        <v>20</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1802,7 +1918,7 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F39" t="n">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1811,7 +1927,10 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>94</v>
+        <v>20</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1848,6 +1967,9 @@
       <c r="I40" t="n">
         <v>0</v>
       </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1872,7 +1994,7 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1881,7 +2003,10 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>95</v>
+        <v>18</v>
+      </c>
+      <c r="J41" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="42">
@@ -1907,16 +2032,19 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F42" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>56</v>
+        <v>11</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1942,16 +2070,19 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F43" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>39</v>
+        <v>7</v>
+      </c>
+      <c r="J43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1986,7 +2117,10 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2015,13 +2149,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
         <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -2050,12 +2187,15 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2082,7 +2222,7 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F47" t="n">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2091,7 +2231,10 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>94</v>
+        <v>13</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2117,16 +2260,19 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F48" t="n">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>12</v>
+      </c>
+      <c r="J48" t="n">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>76</v>
       </c>
     </row>
     <row r="49">
@@ -2152,16 +2298,19 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F49" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2187,7 +2336,7 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F50" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2196,7 +2345,10 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -2222,7 +2374,7 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F51" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2231,7 +2383,10 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="J51" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -2268,6 +2423,9 @@
       <c r="I52" t="n">
         <v>0</v>
       </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2292,7 +2450,7 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F53" t="n">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2301,7 +2459,10 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>93</v>
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="54">
@@ -2327,7 +2488,7 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F54" t="n">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2336,7 +2497,10 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>52</v>
+        <v>5</v>
+      </c>
+      <c r="J54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -2362,7 +2526,7 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F55" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2371,7 +2535,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -2397,7 +2564,7 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F56" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2406,7 +2573,10 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2432,16 +2602,19 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F57" t="n">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>10</v>
+      </c>
+      <c r="J57" t="n">
         <v>2</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>86</v>
       </c>
     </row>
     <row r="58">
@@ -2467,16 +2640,19 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F58" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2513,6 +2689,9 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2540,12 +2719,15 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2575,12 +2757,15 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,6 +2803,9 @@
       <c r="I62" t="n">
         <v>0</v>
       </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2653,6 +2841,9 @@
       <c r="I63" t="n">
         <v>0</v>
       </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2688,6 +2879,9 @@
       <c r="I64" t="n">
         <v>0</v>
       </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2723,6 +2917,9 @@
       <c r="I65" t="n">
         <v>0</v>
       </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2758,6 +2955,9 @@
       <c r="I66" t="n">
         <v>0</v>
       </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2793,6 +2993,9 @@
       <c r="I67" t="n">
         <v>0</v>
       </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2828,6 +3031,9 @@
       <c r="I68" t="n">
         <v>0</v>
       </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2863,6 +3069,9 @@
       <c r="I69" t="n">
         <v>0</v>
       </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2898,6 +3107,9 @@
       <c r="I70" t="n">
         <v>0</v>
       </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2933,6 +3145,9 @@
       <c r="I71" t="n">
         <v>0</v>
       </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2968,6 +3183,9 @@
       <c r="I72" t="n">
         <v>0</v>
       </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3003,6 +3221,9 @@
       <c r="I73" t="n">
         <v>0</v>
       </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3038,6 +3259,9 @@
       <c r="I74" t="n">
         <v>0</v>
       </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3073,6 +3297,9 @@
       <c r="I75" t="n">
         <v>0</v>
       </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3108,6 +3335,9 @@
       <c r="I76" t="n">
         <v>0</v>
       </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3143,6 +3373,9 @@
       <c r="I77" t="n">
         <v>0</v>
       </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3178,6 +3411,9 @@
       <c r="I78" t="n">
         <v>0</v>
       </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3213,6 +3449,9 @@
       <c r="I79" t="n">
         <v>0</v>
       </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3248,6 +3487,9 @@
       <c r="I80" t="n">
         <v>0</v>
       </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3283,6 +3525,9 @@
       <c r="I81" t="n">
         <v>0</v>
       </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3318,6 +3563,9 @@
       <c r="I82" t="n">
         <v>0</v>
       </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3353,6 +3601,9 @@
       <c r="I83" t="n">
         <v>0</v>
       </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3388,6 +3639,9 @@
       <c r="I84" t="n">
         <v>0</v>
       </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3423,6 +3677,9 @@
       <c r="I85" t="n">
         <v>0</v>
       </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3458,6 +3715,9 @@
       <c r="I86" t="n">
         <v>0</v>
       </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3493,6 +3753,9 @@
       <c r="I87" t="n">
         <v>0</v>
       </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3528,6 +3791,9 @@
       <c r="I88" t="n">
         <v>0</v>
       </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3563,6 +3829,9 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3598,6 +3867,9 @@
       <c r="I90" t="n">
         <v>0</v>
       </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3633,6 +3905,9 @@
       <c r="I91" t="n">
         <v>0</v>
       </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3668,6 +3943,9 @@
       <c r="I92" t="n">
         <v>0</v>
       </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3703,6 +3981,9 @@
       <c r="I93" t="n">
         <v>0</v>
       </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3738,6 +4019,9 @@
       <c r="I94" t="n">
         <v>0</v>
       </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3773,6 +4057,9 @@
       <c r="I95" t="n">
         <v>0</v>
       </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3808,6 +4095,9 @@
       <c r="I96" t="n">
         <v>0</v>
       </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3843,6 +4133,9 @@
       <c r="I97" t="n">
         <v>0</v>
       </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3878,6 +4171,9 @@
       <c r="I98" t="n">
         <v>0</v>
       </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3913,6 +4209,9 @@
       <c r="I99" t="n">
         <v>0</v>
       </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3948,6 +4247,9 @@
       <c r="I100" t="n">
         <v>0</v>
       </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3983,6 +4285,9 @@
       <c r="I101" t="n">
         <v>0</v>
       </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4018,6 +4323,9 @@
       <c r="I102" t="n">
         <v>0</v>
       </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4053,6 +4361,9 @@
       <c r="I103" t="n">
         <v>0</v>
       </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4088,6 +4399,9 @@
       <c r="I104" t="n">
         <v>0</v>
       </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4123,6 +4437,9 @@
       <c r="I105" t="n">
         <v>0</v>
       </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4158,6 +4475,9 @@
       <c r="I106" t="n">
         <v>0</v>
       </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4193,6 +4513,9 @@
       <c r="I107" t="n">
         <v>0</v>
       </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4228,6 +4551,9 @@
       <c r="I108" t="n">
         <v>0</v>
       </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4263,6 +4589,9 @@
       <c r="I109" t="n">
         <v>0</v>
       </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4298,6 +4627,9 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4333,6 +4665,9 @@
       <c r="I111" t="n">
         <v>0</v>
       </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -4368,6 +4703,9 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -4403,6 +4741,9 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -4438,6 +4779,9 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -4473,6 +4817,9 @@
       <c r="I115" t="n">
         <v>0</v>
       </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -4508,6 +4855,9 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -4543,6 +4893,9 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -4578,6 +4931,9 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -4613,6 +4969,9 @@
       <c r="I119" t="n">
         <v>0</v>
       </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -4648,6 +5007,9 @@
       <c r="I120" t="n">
         <v>0</v>
       </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -4683,6 +5045,9 @@
       <c r="I121" t="n">
         <v>0</v>
       </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -4718,6 +5083,9 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -4753,6 +5121,9 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -4788,6 +5159,9 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -4823,6 +5197,9 @@
       <c r="I125" t="n">
         <v>0</v>
       </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -4858,6 +5235,9 @@
       <c r="I126" t="n">
         <v>0</v>
       </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4893,6 +5273,9 @@
       <c r="I127" t="n">
         <v>0</v>
       </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4928,6 +5311,9 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4963,6 +5349,9 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4998,6 +5387,9 @@
       <c r="I130" t="n">
         <v>0</v>
       </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -5033,6 +5425,9 @@
       <c r="I131" t="n">
         <v>0</v>
       </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -5068,6 +5463,9 @@
       <c r="I132" t="n">
         <v>0</v>
       </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -5103,6 +5501,9 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -5138,6 +5539,9 @@
       <c r="I134" t="n">
         <v>0</v>
       </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -5173,6 +5577,9 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -5208,6 +5615,9 @@
       <c r="I136" t="n">
         <v>0</v>
       </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -5243,6 +5653,9 @@
       <c r="I137" t="n">
         <v>0</v>
       </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -5278,6 +5691,9 @@
       <c r="I138" t="n">
         <v>0</v>
       </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -5313,6 +5729,9 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -5348,6 +5767,9 @@
       <c r="I140" t="n">
         <v>0</v>
       </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -5383,6 +5805,9 @@
       <c r="I141" t="n">
         <v>0</v>
       </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -5418,6 +5843,9 @@
       <c r="I142" t="n">
         <v>0</v>
       </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -5453,6 +5881,9 @@
       <c r="I143" t="n">
         <v>0</v>
       </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -5488,6 +5919,9 @@
       <c r="I144" t="n">
         <v>0</v>
       </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -5523,6 +5957,9 @@
       <c r="I145" t="n">
         <v>0</v>
       </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -5558,6 +5995,9 @@
       <c r="I146" t="n">
         <v>0</v>
       </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -5593,6 +6033,9 @@
       <c r="I147" t="n">
         <v>0</v>
       </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -5628,6 +6071,9 @@
       <c r="I148" t="n">
         <v>0</v>
       </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -5663,6 +6109,9 @@
       <c r="I149" t="n">
         <v>0</v>
       </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -5698,6 +6147,9 @@
       <c r="I150" t="n">
         <v>0</v>
       </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -5733,6 +6185,9 @@
       <c r="I151" t="n">
         <v>0</v>
       </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -5768,6 +6223,9 @@
       <c r="I152" t="n">
         <v>0</v>
       </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -5803,6 +6261,9 @@
       <c r="I153" t="n">
         <v>0</v>
       </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -5838,6 +6299,9 @@
       <c r="I154" t="n">
         <v>0</v>
       </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5873,6 +6337,9 @@
       <c r="I155" t="n">
         <v>0</v>
       </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -5908,6 +6375,9 @@
       <c r="I156" t="n">
         <v>0</v>
       </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5943,6 +6413,9 @@
       <c r="I157" t="n">
         <v>0</v>
       </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -5978,6 +6451,9 @@
       <c r="I158" t="n">
         <v>0</v>
       </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -6013,6 +6489,9 @@
       <c r="I159" t="n">
         <v>0</v>
       </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -6048,6 +6527,9 @@
       <c r="I160" t="n">
         <v>0</v>
       </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -6083,6 +6565,9 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -6118,6 +6603,9 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -6153,6 +6641,9 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -6188,6 +6679,9 @@
       <c r="I164" t="n">
         <v>0</v>
       </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -6223,6 +6717,9 @@
       <c r="I165" t="n">
         <v>0</v>
       </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -6258,6 +6755,9 @@
       <c r="I166" t="n">
         <v>0</v>
       </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -6293,6 +6793,9 @@
       <c r="I167" t="n">
         <v>0</v>
       </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -6328,6 +6831,9 @@
       <c r="I168" t="n">
         <v>0</v>
       </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -6363,6 +6869,9 @@
       <c r="I169" t="n">
         <v>0</v>
       </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -6398,6 +6907,9 @@
       <c r="I170" t="n">
         <v>0</v>
       </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -6433,6 +6945,9 @@
       <c r="I171" t="n">
         <v>0</v>
       </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -6468,6 +6983,9 @@
       <c r="I172" t="n">
         <v>0</v>
       </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -6503,6 +7021,9 @@
       <c r="I173" t="n">
         <v>0</v>
       </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6538,6 +7059,9 @@
       <c r="I174" t="n">
         <v>0</v>
       </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6573,6 +7097,9 @@
       <c r="I175" t="n">
         <v>0</v>
       </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6608,6 +7135,9 @@
       <c r="I176" t="n">
         <v>0</v>
       </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6643,6 +7173,9 @@
       <c r="I177" t="n">
         <v>0</v>
       </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6678,6 +7211,9 @@
       <c r="I178" t="n">
         <v>0</v>
       </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6713,6 +7249,9 @@
       <c r="I179" t="n">
         <v>0</v>
       </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6748,6 +7287,9 @@
       <c r="I180" t="n">
         <v>0</v>
       </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6783,6 +7325,9 @@
       <c r="I181" t="n">
         <v>0</v>
       </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6818,6 +7363,9 @@
       <c r="I182" t="n">
         <v>0</v>
       </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6853,6 +7401,9 @@
       <c r="I183" t="n">
         <v>0</v>
       </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6888,6 +7439,9 @@
       <c r="I184" t="n">
         <v>0</v>
       </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6923,6 +7477,9 @@
       <c r="I185" t="n">
         <v>0</v>
       </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6958,6 +7515,9 @@
       <c r="I186" t="n">
         <v>0</v>
       </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6993,6 +7553,9 @@
       <c r="I187" t="n">
         <v>0</v>
       </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -7028,6 +7591,9 @@
       <c r="I188" t="n">
         <v>0</v>
       </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -7063,6 +7629,9 @@
       <c r="I189" t="n">
         <v>0</v>
       </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -7098,6 +7667,9 @@
       <c r="I190" t="n">
         <v>0</v>
       </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -7133,6 +7705,9 @@
       <c r="I191" t="n">
         <v>0</v>
       </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -7168,6 +7743,9 @@
       <c r="I192" t="n">
         <v>0</v>
       </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -7203,6 +7781,9 @@
       <c r="I193" t="n">
         <v>0</v>
       </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -7238,6 +7819,9 @@
       <c r="I194" t="n">
         <v>0</v>
       </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -7273,6 +7857,9 @@
       <c r="I195" t="n">
         <v>0</v>
       </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -7308,6 +7895,9 @@
       <c r="I196" t="n">
         <v>0</v>
       </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -7343,6 +7933,9 @@
       <c r="I197" t="n">
         <v>0</v>
       </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -7378,6 +7971,9 @@
       <c r="I198" t="n">
         <v>0</v>
       </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -7413,6 +8009,9 @@
       <c r="I199" t="n">
         <v>0</v>
       </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -7448,6 +8047,9 @@
       <c r="I200" t="n">
         <v>0</v>
       </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -7483,6 +8085,9 @@
       <c r="I201" t="n">
         <v>0</v>
       </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -7518,6 +8123,9 @@
       <c r="I202" t="n">
         <v>0</v>
       </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -7553,6 +8161,9 @@
       <c r="I203" t="n">
         <v>0</v>
       </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -7588,6 +8199,9 @@
       <c r="I204" t="n">
         <v>0</v>
       </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -7623,6 +8237,9 @@
       <c r="I205" t="n">
         <v>0</v>
       </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -7658,6 +8275,9 @@
       <c r="I206" t="n">
         <v>0</v>
       </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -7693,6 +8313,9 @@
       <c r="I207" t="n">
         <v>0</v>
       </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -7728,6 +8351,9 @@
       <c r="I208" t="n">
         <v>0</v>
       </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -7763,6 +8389,9 @@
       <c r="I209" t="n">
         <v>0</v>
       </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -7798,6 +8427,9 @@
       <c r="I210" t="n">
         <v>0</v>
       </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -7833,6 +8465,9 @@
       <c r="I211" t="n">
         <v>0</v>
       </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -7868,6 +8503,9 @@
       <c r="I212" t="n">
         <v>0</v>
       </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -7903,6 +8541,9 @@
       <c r="I213" t="n">
         <v>0</v>
       </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -7938,6 +8579,9 @@
       <c r="I214" t="n">
         <v>0</v>
       </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -7973,6 +8617,9 @@
       <c r="I215" t="n">
         <v>0</v>
       </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -8008,6 +8655,9 @@
       <c r="I216" t="n">
         <v>0</v>
       </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -8043,6 +8693,9 @@
       <c r="I217" t="n">
         <v>0</v>
       </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -8078,6 +8731,9 @@
       <c r="I218" t="n">
         <v>0</v>
       </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -8113,6 +8769,9 @@
       <c r="I219" t="n">
         <v>0</v>
       </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -8148,6 +8807,9 @@
       <c r="I220" t="n">
         <v>0</v>
       </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -8183,6 +8845,9 @@
       <c r="I221" t="n">
         <v>0</v>
       </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -8218,6 +8883,9 @@
       <c r="I222" t="n">
         <v>0</v>
       </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -8253,6 +8921,9 @@
       <c r="I223" t="n">
         <v>0</v>
       </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -8288,6 +8959,9 @@
       <c r="I224" t="n">
         <v>0</v>
       </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -8323,6 +8997,9 @@
       <c r="I225" t="n">
         <v>0</v>
       </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -8358,6 +9035,9 @@
       <c r="I226" t="n">
         <v>0</v>
       </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -8393,6 +9073,9 @@
       <c r="I227" t="n">
         <v>0</v>
       </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -8428,6 +9111,9 @@
       <c r="I228" t="n">
         <v>0</v>
       </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -8463,6 +9149,9 @@
       <c r="I229" t="n">
         <v>0</v>
       </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -8498,6 +9187,9 @@
       <c r="I230" t="n">
         <v>0</v>
       </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -8533,6 +9225,9 @@
       <c r="I231" t="n">
         <v>0</v>
       </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -8568,6 +9263,9 @@
       <c r="I232" t="n">
         <v>0</v>
       </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -8603,6 +9301,9 @@
       <c r="I233" t="n">
         <v>0</v>
       </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -8638,6 +9339,9 @@
       <c r="I234" t="n">
         <v>0</v>
       </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -8673,6 +9377,9 @@
       <c r="I235" t="n">
         <v>0</v>
       </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -8708,6 +9415,9 @@
       <c r="I236" t="n">
         <v>0</v>
       </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -8743,6 +9453,9 @@
       <c r="I237" t="n">
         <v>0</v>
       </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -8778,6 +9491,9 @@
       <c r="I238" t="n">
         <v>0</v>
       </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -8813,6 +9529,9 @@
       <c r="I239" t="n">
         <v>0</v>
       </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -8848,6 +9567,9 @@
       <c r="I240" t="n">
         <v>0</v>
       </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -8883,6 +9605,9 @@
       <c r="I241" t="n">
         <v>0</v>
       </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -8918,6 +9643,9 @@
       <c r="I242" t="n">
         <v>0</v>
       </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -8953,6 +9681,9 @@
       <c r="I243" t="n">
         <v>0</v>
       </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -8988,6 +9719,9 @@
       <c r="I244" t="n">
         <v>0</v>
       </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -9023,6 +9757,9 @@
       <c r="I245" t="n">
         <v>0</v>
       </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -9058,6 +9795,9 @@
       <c r="I246" t="n">
         <v>0</v>
       </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -9093,6 +9833,9 @@
       <c r="I247" t="n">
         <v>0</v>
       </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -9128,6 +9871,9 @@
       <c r="I248" t="n">
         <v>0</v>
       </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -9163,6 +9909,9 @@
       <c r="I249" t="n">
         <v>0</v>
       </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -9198,6 +9947,9 @@
       <c r="I250" t="n">
         <v>0</v>
       </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -9233,6 +9985,9 @@
       <c r="I251" t="n">
         <v>0</v>
       </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -9268,6 +10023,9 @@
       <c r="I252" t="n">
         <v>0</v>
       </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -9303,6 +10061,9 @@
       <c r="I253" t="n">
         <v>0</v>
       </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -9338,6 +10099,9 @@
       <c r="I254" t="n">
         <v>0</v>
       </c>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -9373,6 +10137,9 @@
       <c r="I255" t="n">
         <v>0</v>
       </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -9408,6 +10175,9 @@
       <c r="I256" t="n">
         <v>0</v>
       </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -9443,6 +10213,9 @@
       <c r="I257" t="n">
         <v>0</v>
       </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -9478,6 +10251,9 @@
       <c r="I258" t="n">
         <v>0</v>
       </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -9513,6 +10289,9 @@
       <c r="I259" t="n">
         <v>0</v>
       </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -9548,6 +10327,9 @@
       <c r="I260" t="n">
         <v>0</v>
       </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -9583,6 +10365,9 @@
       <c r="I261" t="n">
         <v>0</v>
       </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -9618,6 +10403,9 @@
       <c r="I262" t="n">
         <v>0</v>
       </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -9653,6 +10441,9 @@
       <c r="I263" t="n">
         <v>0</v>
       </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -9688,6 +10479,9 @@
       <c r="I264" t="n">
         <v>0</v>
       </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -9723,6 +10517,9 @@
       <c r="I265" t="n">
         <v>0</v>
       </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -9758,6 +10555,9 @@
       <c r="I266" t="n">
         <v>0</v>
       </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -9793,6 +10593,9 @@
       <c r="I267" t="n">
         <v>0</v>
       </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -9828,6 +10631,9 @@
       <c r="I268" t="n">
         <v>0</v>
       </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -9863,6 +10669,9 @@
       <c r="I269" t="n">
         <v>0</v>
       </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -9898,6 +10707,9 @@
       <c r="I270" t="n">
         <v>0</v>
       </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -9933,6 +10745,9 @@
       <c r="I271" t="n">
         <v>0</v>
       </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -9968,6 +10783,9 @@
       <c r="I272" t="n">
         <v>0</v>
       </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -10003,6 +10821,9 @@
       <c r="I273" t="n">
         <v>0</v>
       </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -10038,6 +10859,9 @@
       <c r="I274" t="n">
         <v>0</v>
       </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -10073,6 +10897,9 @@
       <c r="I275" t="n">
         <v>0</v>
       </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -10108,6 +10935,9 @@
       <c r="I276" t="n">
         <v>0</v>
       </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -10143,6 +10973,9 @@
       <c r="I277" t="n">
         <v>0</v>
       </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -10178,6 +11011,9 @@
       <c r="I278" t="n">
         <v>0</v>
       </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -10213,6 +11049,9 @@
       <c r="I279" t="n">
         <v>0</v>
       </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -10248,6 +11087,9 @@
       <c r="I280" t="n">
         <v>0</v>
       </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -10283,6 +11125,9 @@
       <c r="I281" t="n">
         <v>0</v>
       </c>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -10318,6 +11163,9 @@
       <c r="I282" t="n">
         <v>0</v>
       </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -10353,6 +11201,9 @@
       <c r="I283" t="n">
         <v>0</v>
       </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -10388,6 +11239,9 @@
       <c r="I284" t="n">
         <v>0</v>
       </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -10423,6 +11277,9 @@
       <c r="I285" t="n">
         <v>0</v>
       </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -10458,6 +11315,9 @@
       <c r="I286" t="n">
         <v>0</v>
       </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -10493,6 +11353,9 @@
       <c r="I287" t="n">
         <v>0</v>
       </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -10528,6 +11391,9 @@
       <c r="I288" t="n">
         <v>0</v>
       </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -10563,6 +11429,9 @@
       <c r="I289" t="n">
         <v>0</v>
       </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -10598,6 +11467,9 @@
       <c r="I290" t="n">
         <v>0</v>
       </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -10633,6 +11505,9 @@
       <c r="I291" t="n">
         <v>0</v>
       </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -10668,6 +11543,9 @@
       <c r="I292" t="n">
         <v>0</v>
       </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -10703,6 +11581,9 @@
       <c r="I293" t="n">
         <v>0</v>
       </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -10738,6 +11619,9 @@
       <c r="I294" t="n">
         <v>0</v>
       </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -10773,6 +11657,9 @@
       <c r="I295" t="n">
         <v>0</v>
       </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -10808,6 +11695,9 @@
       <c r="I296" t="n">
         <v>0</v>
       </c>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -10843,6 +11733,9 @@
       <c r="I297" t="n">
         <v>0</v>
       </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -10878,6 +11771,9 @@
       <c r="I298" t="n">
         <v>0</v>
       </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -10913,6 +11809,9 @@
       <c r="I299" t="n">
         <v>0</v>
       </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -10948,6 +11847,9 @@
       <c r="I300" t="n">
         <v>0</v>
       </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -10983,6 +11885,9 @@
       <c r="I301" t="n">
         <v>0</v>
       </c>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -11018,6 +11923,9 @@
       <c r="I302" t="n">
         <v>0</v>
       </c>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -11053,6 +11961,9 @@
       <c r="I303" t="n">
         <v>0</v>
       </c>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -11088,6 +11999,9 @@
       <c r="I304" t="n">
         <v>0</v>
       </c>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -11123,6 +12037,9 @@
       <c r="I305" t="n">
         <v>0</v>
       </c>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -11158,6 +12075,9 @@
       <c r="I306" t="n">
         <v>0</v>
       </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -11193,6 +12113,9 @@
       <c r="I307" t="n">
         <v>0</v>
       </c>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -11228,6 +12151,9 @@
       <c r="I308" t="n">
         <v>0</v>
       </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -11263,6 +12189,9 @@
       <c r="I309" t="n">
         <v>0</v>
       </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -11298,6 +12227,9 @@
       <c r="I310" t="n">
         <v>0</v>
       </c>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -11333,6 +12265,9 @@
       <c r="I311" t="n">
         <v>0</v>
       </c>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -11368,6 +12303,9 @@
       <c r="I312" t="n">
         <v>0</v>
       </c>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -11403,6 +12341,9 @@
       <c r="I313" t="n">
         <v>0</v>
       </c>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -11438,6 +12379,9 @@
       <c r="I314" t="n">
         <v>0</v>
       </c>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -11473,6 +12417,9 @@
       <c r="I315" t="n">
         <v>0</v>
       </c>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -11508,6 +12455,9 @@
       <c r="I316" t="n">
         <v>0</v>
       </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -11543,6 +12493,9 @@
       <c r="I317" t="n">
         <v>0</v>
       </c>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -11578,6 +12531,9 @@
       <c r="I318" t="n">
         <v>0</v>
       </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -11613,6 +12569,9 @@
       <c r="I319" t="n">
         <v>0</v>
       </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -11648,6 +12607,9 @@
       <c r="I320" t="n">
         <v>0</v>
       </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -11683,6 +12645,9 @@
       <c r="I321" t="n">
         <v>0</v>
       </c>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -11718,6 +12683,9 @@
       <c r="I322" t="n">
         <v>0</v>
       </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -11753,6 +12721,9 @@
       <c r="I323" t="n">
         <v>0</v>
       </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -11788,6 +12759,9 @@
       <c r="I324" t="n">
         <v>0</v>
       </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -11823,6 +12797,9 @@
       <c r="I325" t="n">
         <v>0</v>
       </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -11858,6 +12835,9 @@
       <c r="I326" t="n">
         <v>0</v>
       </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -11893,6 +12873,9 @@
       <c r="I327" t="n">
         <v>0</v>
       </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -11928,6 +12911,9 @@
       <c r="I328" t="n">
         <v>0</v>
       </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -11963,6 +12949,9 @@
       <c r="I329" t="n">
         <v>0</v>
       </c>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -11998,6 +12987,9 @@
       <c r="I330" t="n">
         <v>0</v>
       </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -12033,6 +13025,9 @@
       <c r="I331" t="n">
         <v>0</v>
       </c>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -12068,6 +13063,9 @@
       <c r="I332" t="n">
         <v>0</v>
       </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -12103,6 +13101,9 @@
       <c r="I333" t="n">
         <v>0</v>
       </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -12138,6 +13139,9 @@
       <c r="I334" t="n">
         <v>0</v>
       </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -12173,6 +13177,9 @@
       <c r="I335" t="n">
         <v>0</v>
       </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -12208,6 +13215,9 @@
       <c r="I336" t="n">
         <v>0</v>
       </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -12243,6 +13253,9 @@
       <c r="I337" t="n">
         <v>0</v>
       </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -12278,6 +13291,9 @@
       <c r="I338" t="n">
         <v>0</v>
       </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -12313,6 +13329,9 @@
       <c r="I339" t="n">
         <v>0</v>
       </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -12348,6 +13367,9 @@
       <c r="I340" t="n">
         <v>0</v>
       </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -12383,6 +13405,9 @@
       <c r="I341" t="n">
         <v>0</v>
       </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -12418,6 +13443,9 @@
       <c r="I342" t="n">
         <v>0</v>
       </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -12453,6 +13481,9 @@
       <c r="I343" t="n">
         <v>0</v>
       </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -12488,6 +13519,9 @@
       <c r="I344" t="n">
         <v>0</v>
       </c>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -12523,6 +13557,9 @@
       <c r="I345" t="n">
         <v>0</v>
       </c>
+      <c r="J345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -12558,6 +13595,9 @@
       <c r="I346" t="n">
         <v>0</v>
       </c>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -12593,6 +13633,9 @@
       <c r="I347" t="n">
         <v>0</v>
       </c>
+      <c r="J347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -12628,6 +13671,9 @@
       <c r="I348" t="n">
         <v>0</v>
       </c>
+      <c r="J348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -12663,6 +13709,9 @@
       <c r="I349" t="n">
         <v>0</v>
       </c>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -12698,6 +13747,9 @@
       <c r="I350" t="n">
         <v>0</v>
       </c>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -12733,6 +13785,9 @@
       <c r="I351" t="n">
         <v>0</v>
       </c>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -12768,6 +13823,9 @@
       <c r="I352" t="n">
         <v>0</v>
       </c>
+      <c r="J352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -12803,6 +13861,9 @@
       <c r="I353" t="n">
         <v>0</v>
       </c>
+      <c r="J353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -12838,6 +13899,9 @@
       <c r="I354" t="n">
         <v>0</v>
       </c>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -12873,6 +13937,9 @@
       <c r="I355" t="n">
         <v>0</v>
       </c>
+      <c r="J355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -12908,6 +13975,9 @@
       <c r="I356" t="n">
         <v>0</v>
       </c>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -12943,6 +14013,9 @@
       <c r="I357" t="n">
         <v>0</v>
       </c>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -12978,6 +14051,9 @@
       <c r="I358" t="n">
         <v>0</v>
       </c>
+      <c r="J358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -13013,6 +14089,9 @@
       <c r="I359" t="n">
         <v>0</v>
       </c>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -13048,6 +14127,9 @@
       <c r="I360" t="n">
         <v>0</v>
       </c>
+      <c r="J360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -13083,6 +14165,9 @@
       <c r="I361" t="n">
         <v>0</v>
       </c>
+      <c r="J361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -13118,6 +14203,9 @@
       <c r="I362" t="n">
         <v>0</v>
       </c>
+      <c r="J362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -13153,6 +14241,9 @@
       <c r="I363" t="n">
         <v>0</v>
       </c>
+      <c r="J363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -13188,6 +14279,9 @@
       <c r="I364" t="n">
         <v>0</v>
       </c>
+      <c r="J364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -13223,6 +14317,9 @@
       <c r="I365" t="n">
         <v>0</v>
       </c>
+      <c r="J365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -13258,6 +14355,9 @@
       <c r="I366" t="n">
         <v>0</v>
       </c>
+      <c r="J366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -13293,6 +14393,9 @@
       <c r="I367" t="n">
         <v>0</v>
       </c>
+      <c r="J367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -13328,6 +14431,9 @@
       <c r="I368" t="n">
         <v>0</v>
       </c>
+      <c r="J368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -13363,6 +14469,9 @@
       <c r="I369" t="n">
         <v>0</v>
       </c>
+      <c r="J369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -13398,6 +14507,9 @@
       <c r="I370" t="n">
         <v>0</v>
       </c>
+      <c r="J370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -13433,6 +14545,9 @@
       <c r="I371" t="n">
         <v>0</v>
       </c>
+      <c r="J371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -13468,6 +14583,9 @@
       <c r="I372" t="n">
         <v>0</v>
       </c>
+      <c r="J372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -13501,6 +14619,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="n">
+        <v>0</v>
+      </c>
+      <c r="J373" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/summary_physician.xlsx
+++ b/results/summary_physician.xlsx
@@ -512,7 +512,7 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F2" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -550,7 +550,7 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F3" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -559,10 +559,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -626,7 +626,7 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F5" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -635,10 +635,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="J5" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -664,7 +664,7 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F6" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -711,10 +711,10 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -740,7 +740,7 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -749,10 +749,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -778,7 +778,7 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F9" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -787,10 +787,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -816,7 +816,7 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F14" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1006,7 +1006,7 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F15" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="J15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F17" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="J17" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1120,7 +1120,7 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F18" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1129,10 +1129,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1158,7 +1158,7 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F19" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
+        <v>27</v>
+      </c>
+      <c r="J19" t="n">
         <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1205,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1310,7 +1310,7 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F23" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -1319,10 +1319,10 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1348,7 +1348,7 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F24" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1386,7 +1386,7 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
         <v>2</v>
@@ -1424,7 +1424,7 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F26" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1462,7 +1462,7 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F27" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1538,7 +1538,7 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F29" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1547,10 +1547,10 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="J29" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1576,19 +1576,19 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F30" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1614,19 +1614,19 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F31" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
+        <v>23</v>
+      </c>
+      <c r="J31" t="n">
         <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1652,7 +1652,7 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F32" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -1661,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -1690,19 +1690,19 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F33" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1728,19 +1728,19 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F34" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1880,7 +1880,7 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F38" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1918,7 +1918,7 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F39" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1994,7 +1994,7 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F41" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="J41" t="n">
         <v>10</v>
@@ -2032,7 +2032,7 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F42" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="J42" t="n">
         <v>5</v>
@@ -2070,7 +2070,7 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J43" t="n">
         <v>5</v>
@@ -2117,7 +2117,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2222,7 +2222,7 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F47" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2231,10 +2231,10 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -2260,7 +2260,7 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F48" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2269,10 +2269,10 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="J48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
@@ -2298,7 +2298,7 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F49" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2307,10 +2307,10 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2336,7 +2336,7 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F50" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="J50" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2374,7 +2374,7 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F51" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="J51" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2450,7 +2450,7 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F53" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2459,10 +2459,10 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2488,7 +2488,7 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F54" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2497,10 +2497,10 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2535,10 +2535,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2564,7 +2564,7 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F56" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2573,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -2602,7 +2602,7 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F57" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
@@ -2640,7 +2640,7 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F58" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">

--- a/results/summary_physician.xlsx
+++ b/results/summary_physician.xlsx
@@ -512,7 +512,7 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F2" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -550,7 +550,7 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F3" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -635,10 +635,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -664,19 +664,19 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F6" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -702,16 +702,16 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F7" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -778,19 +778,19 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F9" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -816,16 +816,16 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1015,10 +1015,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F17" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1120,19 +1120,19 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F18" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>21</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1158,19 +1158,19 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>2</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F23" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
@@ -1319,10 +1319,10 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1348,19 +1348,19 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F24" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1392,13 +1392,13 @@
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1424,7 +1424,7 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F26" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1462,7 +1462,7 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F27" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1538,7 +1538,7 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F29" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1614,19 +1614,19 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F31" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1661,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1690,19 +1690,19 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F33" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G33" t="n">
+        <v>3</v>
+      </c>
+      <c r="H33" t="n">
         <v>1</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1728,16 +1728,16 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F34" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F38" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J38" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1918,7 +1918,7 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F39" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1994,7 +1994,7 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F41" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2003,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J41" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -2032,19 +2032,19 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F42" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2070,19 +2070,19 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F43" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J43" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2120,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2149,16 +2149,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>5</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2187,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F47" t="n">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G47" t="n">
         <v>3</v>
@@ -2231,10 +2231,10 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2260,19 +2260,19 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F48" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2298,16 +2298,16 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F49" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F50" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -2374,7 +2374,7 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F51" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2450,7 +2450,7 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F53" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>42</v>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2488,19 +2488,19 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F54" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2526,19 +2526,19 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F55" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>18</v>
+      </c>
+      <c r="J55" t="n">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>22</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2564,7 +2564,7 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F56" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2573,10 +2573,10 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2602,19 +2602,19 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F57" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -2640,19 +2640,19 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F58" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>

--- a/results/summary_physician.xlsx
+++ b/results/summary_physician.xlsx
@@ -512,19 +512,19 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F2" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -550,19 +550,19 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F3" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I3" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -626,19 +626,19 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F5" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
+        <v>17</v>
+      </c>
+      <c r="I5" t="n">
+        <v>50</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>52</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -664,19 +664,19 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -702,16 +702,16 @@
         <v>44986.83402777778</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -740,19 +740,19 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F8" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -778,19 +778,19 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I9" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -816,19 +816,19 @@
         <v>44987.33402777778</v>
       </c>
       <c r="F10" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -968,19 +968,19 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F14" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="I14" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1006,19 +1006,19 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F15" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1047,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F17" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I17" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1120,19 +1120,19 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1158,16 +1158,16 @@
         <v>44987.83402777778</v>
       </c>
       <c r="F19" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1199,16 +1199,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1237,16 +1237,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1310,19 +1310,19 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F23" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="I23" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1348,19 +1348,19 @@
         <v>44988.33402777778</v>
       </c>
       <c r="F24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>86</v>
       </c>
       <c r="I24" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1389,13 +1389,13 @@
         <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F26" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I26" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1462,19 +1462,19 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F27" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="I27" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1538,19 +1538,19 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F29" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="I29" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1576,19 +1576,19 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F30" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="I30" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1614,16 +1614,16 @@
         <v>44988.83402777778</v>
       </c>
       <c r="F31" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1652,19 +1652,19 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F32" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="H32" t="n">
+        <v>171</v>
+      </c>
+      <c r="I32" t="n">
+        <v>47</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>33</v>
-      </c>
-      <c r="J32" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1690,19 +1690,19 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F33" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="H33" t="n">
+        <v>145</v>
+      </c>
+      <c r="I33" t="n">
+        <v>38</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>28</v>
-      </c>
-      <c r="J33" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1728,16 +1728,16 @@
         <v>44989.33402777778</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1769,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -1845,10 +1845,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F38" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I38" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1918,19 +1918,19 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F39" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I39" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -1994,19 +1994,19 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F41" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="I41" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2035,16 +2035,16 @@
         <v>43</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I42" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2070,13 +2070,13 @@
         <v>44989.83402777778</v>
       </c>
       <c r="F43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I43" t="n">
         <v>19</v>
@@ -2111,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>156</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2149,13 +2149,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2187,10 +2187,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -2222,19 +2222,19 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F47" t="n">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>243</v>
       </c>
       <c r="I47" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2260,19 +2260,19 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="I48" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2298,19 +2298,19 @@
         <v>44990.33402777778</v>
       </c>
       <c r="F49" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G49" t="n">
+        <v>33</v>
+      </c>
+      <c r="H49" t="n">
+        <v>36</v>
+      </c>
+      <c r="I49" t="n">
+        <v>10</v>
+      </c>
+      <c r="J49" t="n">
         <v>1</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2336,19 +2336,19 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F50" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I50" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -2374,19 +2374,19 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F51" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I51" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -2450,19 +2450,19 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F53" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H53" t="n">
+        <v>36</v>
+      </c>
+      <c r="I53" t="n">
+        <v>37</v>
+      </c>
+      <c r="J53" t="n">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>42</v>
-      </c>
-      <c r="J53" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2488,19 +2488,19 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F54" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H54" t="n">
+        <v>26</v>
+      </c>
+      <c r="I54" t="n">
+        <v>22</v>
+      </c>
+      <c r="J54" t="n">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>24</v>
-      </c>
-      <c r="J54" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="55">
@@ -2526,19 +2526,19 @@
         <v>44990.83402777778</v>
       </c>
       <c r="F55" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I55" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2564,19 +2564,19 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F56" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G56" t="n">
-        <v>3</v>
+        <v>298</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J56" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -2602,19 +2602,19 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F57" t="n">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J57" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
@@ -2640,19 +2640,19 @@
         <v>44991.33402777778</v>
       </c>
       <c r="F58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>232</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
